--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83F905-3721-4B53-80E7-21E93B494AA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A5338-CBE7-4101-8D80-5F5517D2EF74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{6639A6CF-FE55-4264-9D0B-EE9D09DD7593}"/>
+    <workbookView xWindow="5295" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6639A6CF-FE55-4264-9D0B-EE9D09DD7593}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
+    <sheet name="Molcular property" sheetId="2" r:id="rId2"/>
+    <sheet name="Topological" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>Constitutional</t>
   </si>
@@ -45,12 +47,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>AWeight</t>
-  </si>
-  <si>
     <t>nhyd</t>
   </si>
   <si>
@@ -289,6 +285,129 @@
   </si>
   <si>
     <t>NumSaturatedRings</t>
+  </si>
+  <si>
+    <t>Molecular properties</t>
+  </si>
+  <si>
+    <t>LogP</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>LogP2</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>TPSA</t>
+  </si>
+  <si>
+    <t>Hy</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Crippen data not allow in the rdkit3</t>
+  </si>
+  <si>
+    <t>From constitution</t>
+  </si>
+  <si>
+    <t>MolLogP</t>
+  </si>
+  <si>
+    <t>MolMR</t>
+  </si>
+  <si>
+    <t>Use RDKIT native source (square log)</t>
+  </si>
+  <si>
+    <t>MolLogP2</t>
+  </si>
+  <si>
+    <t>Fix script error with the formula</t>
+  </si>
+  <si>
+    <t>Topological</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Tigdi</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>GMTI</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Ipc</t>
+  </si>
+  <si>
+    <t>BertzCT</t>
+  </si>
+  <si>
+    <t>Thara</t>
+  </si>
+  <si>
+    <t>Tsch</t>
+  </si>
+  <si>
+    <t>ZM1</t>
+  </si>
+  <si>
+    <t>ZM2</t>
+  </si>
+  <si>
+    <t>MZM1</t>
+  </si>
+  <si>
+    <t>MZM2</t>
+  </si>
+  <si>
+    <t>Qindex</t>
+  </si>
+  <si>
+    <t>Platt</t>
+  </si>
+  <si>
+    <t>diametert</t>
+  </si>
+  <si>
+    <t>radiust</t>
+  </si>
+  <si>
+    <t>petitjeant</t>
+  </si>
+  <si>
+    <t>Sito</t>
+  </si>
+  <si>
+    <t>Hato</t>
+  </si>
+  <si>
+    <t>Geto</t>
+  </si>
+  <si>
+    <t>Arto</t>
   </si>
 </sst>
 </file>
@@ -649,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDB5E07-4181-4189-84A0-BC0FC70A3974}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,16 +813,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>554.36900000000003</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>554.36900000000003</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>12.891999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>12.891999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +847,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,16 +867,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,19 +884,19 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,16 +904,16 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,11 +929,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,16 +955,16 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,16 +989,16 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,16 +1006,16 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,16 +1023,16 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,16 +1040,16 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,16 +1057,16 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,16 +1074,16 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,16 +1091,16 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,16 +1108,16 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,16 +1125,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,16 +1142,16 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,16 +1159,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,16 +1176,16 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
-      </c>
-      <c r="D24">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,16 +1193,19 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,16 +1213,16 @@
         <v>27</v>
       </c>
       <c r="B26">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
       <c r="D26">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,19 +1230,16 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
       </c>
       <c r="D27">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,16 +1247,16 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,16 +1264,16 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
       </c>
       <c r="D29">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,188 +1281,591 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
       <c r="D30">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>148</v>
-      </c>
       <c r="C31" t="s">
         <v>73</v>
       </c>
       <c r="D31">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>175</v>
-      </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>38</v>
-      </c>
-      <c r="D33">
-        <v>579.17539813999997</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>579.56899999999996</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B928B4-65FD-44BC-9A63-384AC55E8FF3}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>4.5382999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>20.596166889999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>153.15259999999901</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>158.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>158.25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>-3.9119999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>0.16042290467404099</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>554.36900000000003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>12.891999999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>579.17539813999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>579.56899999999996</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8406698-312A-49AB-AD0D-9F939A7C75FD}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>7.7065340000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>1.0895809999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>4.7300149999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>38.05415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>4.5194869999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>9.9727479999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>3.2500360000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>196.94242399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>30591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17">
+        <v>11.805555999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18">
+        <v>2.0293209999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>0.47368399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24">
+        <v>14.205446999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25">
+        <v>2.0314960000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26">
+        <v>2.1397309999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27">
+        <v>2.232558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A5338-CBE7-4101-8D80-5F5517D2EF74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6FDBFE-5E1C-426D-B4C3-0ACC6B5AEFA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6639A6CF-FE55-4264-9D0B-EE9D09DD7593}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="137">
   <si>
     <t>Constitutional</t>
   </si>
@@ -408,6 +408,42 @@
   </si>
   <si>
     <t>Arto</t>
+  </si>
+  <si>
+    <t>Use RDKit source</t>
+  </si>
+  <si>
+    <t>Name update</t>
+  </si>
+  <si>
+    <t>Weiner</t>
+  </si>
+  <si>
+    <t>Mweiner</t>
+  </si>
+  <si>
+    <t>BalabanJ</t>
+  </si>
+  <si>
+    <t>Use RDKIT source</t>
+  </si>
+  <si>
+    <t>LogTidgi</t>
+  </si>
+  <si>
+    <t>Log of the Tidgi</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>petitjean</t>
+  </si>
+  <si>
+    <t>LogGMTI</t>
   </si>
 </sst>
 </file>
@@ -1632,13 +1668,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8406698-312A-49AB-AD0D-9F939A7C75FD}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1672,6 +1713,12 @@
       <c r="B3">
         <v>6959</v>
       </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1680,6 +1727,12 @@
       <c r="B4">
         <v>7.7065340000000004</v>
       </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1688,184 +1741,285 @@
       <c r="B5">
         <v>1.0895809999999999</v>
       </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>4.7300149999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>38.05415</v>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>4.5194869999999998</v>
+        <v>38.05415</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>4.5194869999999998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10">
-        <v>95.5</v>
+      <c r="C10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11">
-        <v>9.9727479999999993</v>
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12">
-        <v>3.2500360000000001</v>
+        <v>95.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13">
-        <v>196.94242399999999</v>
+        <v>9.9727479999999993</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>30591</v>
+        <v>3.2500360000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>230</v>
+        <v>196.94242399999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>30591</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>11.805555999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>2.0293209999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>117</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>118</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>120</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>0.47368399999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>121</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>14.205446999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>122</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>2.0314960000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>123</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>2.1397309999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>124</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>2.232558</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C082963-AE16-4B7B-95EB-422C79244F99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6051654-2CF0-4B4C-BD70-1F060F5B9DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="-315" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13290" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="684" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
     <sheet name="Molcular property" sheetId="2" r:id="rId2"/>
     <sheet name="Topological" sheetId="3" r:id="rId3"/>
     <sheet name="Connectivity" sheetId="4" r:id="rId4"/>
+    <sheet name="kappa" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="200">
   <si>
     <t>Constitutional</t>
   </si>
@@ -588,25 +589,46 @@
     <t>knotpv</t>
   </si>
   <si>
-    <t>From rdkit</t>
-  </si>
-  <si>
-    <t>Chi0n</t>
-  </si>
-  <si>
-    <t>Chi1n</t>
-  </si>
-  <si>
-    <t>Chi2n</t>
-  </si>
-  <si>
-    <t>Chi3n</t>
-  </si>
-  <si>
-    <t>Chi4n</t>
-  </si>
-  <si>
     <t>update rdkit 3.1</t>
+  </si>
+  <si>
+    <t>Keep current version</t>
+  </si>
+  <si>
+    <t>Chi0n in rdkit</t>
+  </si>
+  <si>
+    <t>Chi1n in rdkit</t>
+  </si>
+  <si>
+    <t>Chi2n in rdkit</t>
+  </si>
+  <si>
+    <t>Chi3n in rdkit</t>
+  </si>
+  <si>
+    <t>Chi4n in rdkit</t>
+  </si>
+  <si>
+    <t>kappa1</t>
+  </si>
+  <si>
+    <t>kappa2</t>
+  </si>
+  <si>
+    <t>kappa3</t>
+  </si>
+  <si>
+    <t>kappam1</t>
+  </si>
+  <si>
+    <t>kappam2</t>
+  </si>
+  <si>
+    <t>kappam3</t>
+  </si>
+  <si>
+    <t>phi</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86D9B3E-6761-4EC5-BC24-988202167197}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +2386,7 @@
         <v>29.760999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,7 +2403,7 @@
         <v>20.957530133630101</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,7 +2538,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -2527,7 +2549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -2538,7 +2560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -2549,7 +2571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -2560,7 +2582,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -2571,7 +2593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2581,8 +2603,17 @@
       <c r="C22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>22.555605297795001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2592,8 +2623,17 @@
       <c r="C23" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>13.363072155744099</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -2603,8 +2643,17 @@
       <c r="C24" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>9.6118620200536302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2614,8 +2663,17 @@
       <c r="C25" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>6.77594411722131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -2625,8 +2683,17 @@
       <c r="C26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>4.6380563921149296</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -2637,7 +2704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -2648,7 +2715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -2659,7 +2726,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -2670,7 +2737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -2681,7 +2748,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -2692,7 +2759,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -2703,7 +2770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2714,7 +2781,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -2725,7 +2792,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2736,7 +2803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -2747,7 +2814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -2758,7 +2825,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -2769,7 +2836,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -2780,7 +2847,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -2791,7 +2858,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -2802,7 +2869,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -2813,7 +2880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -2824,7 +2891,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -2835,7 +2902,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -2844,53 +2911,106 @@
       </c>
       <c r="C46" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47">
-        <v>22.555605297795001</v>
-      </c>
-      <c r="F47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48">
-        <v>13.363072155744099</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49">
-        <v>9.6118620200536302</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50">
-        <v>6.77594411722131</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51">
-        <v>4.6380563921149296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669C31E-62DC-4D85-A64E-E0B4A29701C2}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3">
+        <v>32.921999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4">
+        <v>15.728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5">
+        <v>8.2959999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6">
+        <v>32.921999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7">
+        <v>15.728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8">
+        <v>8.2959999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>12.0417957209302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6051654-2CF0-4B4C-BD70-1F060F5B9DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA9D60-39DF-46F2-9024-EB4735C54D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="684" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Topological" sheetId="3" r:id="rId3"/>
     <sheet name="Connectivity" sheetId="4" r:id="rId4"/>
     <sheet name="kappa" sheetId="5" r:id="rId5"/>
+    <sheet name="bcut" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="287">
   <si>
     <t>Constitutional</t>
   </si>
@@ -629,6 +630,267 @@
   </si>
   <si>
     <t>phi</t>
+  </si>
+  <si>
+    <t>pkappa1</t>
+  </si>
+  <si>
+    <t>pkappa2</t>
+  </si>
+  <si>
+    <t>pkappa3</t>
+  </si>
+  <si>
+    <t>kappa index related to the path</t>
+  </si>
+  <si>
+    <t>rewrite using rdkit script</t>
+  </si>
+  <si>
+    <t>skappa1</t>
+  </si>
+  <si>
+    <t>skappa2</t>
+  </si>
+  <si>
+    <t>skappa3</t>
+  </si>
+  <si>
+    <t>kappa index related to the alpha shape of the atom</t>
+  </si>
+  <si>
+    <t>kappa index related to the alpha shape of the atom based on the HallKierAlpha</t>
+  </si>
+  <si>
+    <t>HallKierAlpha</t>
+  </si>
+  <si>
+    <t>(skappa1*skappa2)/Nb heavy atom</t>
+  </si>
+  <si>
+    <t>from rdkit</t>
+  </si>
+  <si>
+    <t>alpha from atom type</t>
+  </si>
+  <si>
+    <t>Example structure: "OC(=NC1=NC2=C(N=CN2C2CC(OC(=O)C3=CC=CC=C3)C(COC(=O)C3=CC=CC=C3)O2)C(O)=N1)C1=CC=CC=C1"</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>bcut</t>
+  </si>
+  <si>
+    <t>bcutm16</t>
+  </si>
+  <si>
+    <t>bcutm15</t>
+  </si>
+  <si>
+    <t>bcutm14</t>
+  </si>
+  <si>
+    <t>bcutm13</t>
+  </si>
+  <si>
+    <t>bcutm12</t>
+  </si>
+  <si>
+    <t>bcutm11</t>
+  </si>
+  <si>
+    <t>bcutm10</t>
+  </si>
+  <si>
+    <t>bcutm9</t>
+  </si>
+  <si>
+    <t>bcutm8</t>
+  </si>
+  <si>
+    <t>bcutm7</t>
+  </si>
+  <si>
+    <t>bcutm6</t>
+  </si>
+  <si>
+    <t>bcutm5</t>
+  </si>
+  <si>
+    <t>bcutm4</t>
+  </si>
+  <si>
+    <t>bcutm3</t>
+  </si>
+  <si>
+    <t>bcutm2</t>
+  </si>
+  <si>
+    <t>bcutm1</t>
+  </si>
+  <si>
+    <t>bcutv16</t>
+  </si>
+  <si>
+    <t>bcutv15</t>
+  </si>
+  <si>
+    <t>bcutv14</t>
+  </si>
+  <si>
+    <t>bcutv13</t>
+  </si>
+  <si>
+    <t>bcutv12</t>
+  </si>
+  <si>
+    <t>bcutv11</t>
+  </si>
+  <si>
+    <t>bcutv10</t>
+  </si>
+  <si>
+    <t>bcutv9</t>
+  </si>
+  <si>
+    <t>bcutv8</t>
+  </si>
+  <si>
+    <t>bcutv7</t>
+  </si>
+  <si>
+    <t>bcutv6</t>
+  </si>
+  <si>
+    <t>bcutv5</t>
+  </si>
+  <si>
+    <t>bcutv4</t>
+  </si>
+  <si>
+    <t>bcutv3</t>
+  </si>
+  <si>
+    <t>bcutv2</t>
+  </si>
+  <si>
+    <t>bcutv1</t>
+  </si>
+  <si>
+    <t>bcute16</t>
+  </si>
+  <si>
+    <t>bcute15</t>
+  </si>
+  <si>
+    <t>bcute14</t>
+  </si>
+  <si>
+    <t>bcute13</t>
+  </si>
+  <si>
+    <t>bcute12</t>
+  </si>
+  <si>
+    <t>bcute11</t>
+  </si>
+  <si>
+    <t>bcute10</t>
+  </si>
+  <si>
+    <t>bcute9</t>
+  </si>
+  <si>
+    <t>bcute8</t>
+  </si>
+  <si>
+    <t>bcute7</t>
+  </si>
+  <si>
+    <t>bcute6</t>
+  </si>
+  <si>
+    <t>bcute5</t>
+  </si>
+  <si>
+    <t>bcute4</t>
+  </si>
+  <si>
+    <t>bcute3</t>
+  </si>
+  <si>
+    <t>bcute2</t>
+  </si>
+  <si>
+    <t>bcute1</t>
+  </si>
+  <si>
+    <t>bcutp16</t>
+  </si>
+  <si>
+    <t>bcutp15</t>
+  </si>
+  <si>
+    <t>bcutp14</t>
+  </si>
+  <si>
+    <t>bcutp13</t>
+  </si>
+  <si>
+    <t>bcutp12</t>
+  </si>
+  <si>
+    <t>bcutp11</t>
+  </si>
+  <si>
+    <t>bcutp10</t>
+  </si>
+  <si>
+    <t>bcutp9</t>
+  </si>
+  <si>
+    <t>bcutp8</t>
+  </si>
+  <si>
+    <t>bcutp7</t>
+  </si>
+  <si>
+    <t>bcutp6</t>
+  </si>
+  <si>
+    <t>bcutp5</t>
+  </si>
+  <si>
+    <t>bcutp4</t>
+  </si>
+  <si>
+    <t>bcutp3</t>
+  </si>
+  <si>
+    <t>bcutp2</t>
+  </si>
+  <si>
+    <t>bcutp1</t>
+  </si>
+  <si>
+    <t>Burden descriptor from mass</t>
+  </si>
+  <si>
+    <t>globally check sources to be sure the conversion 2 to 3.6 works</t>
+  </si>
+  <si>
+    <t>Burden descriptor from VdW</t>
+  </si>
+  <si>
+    <t>Burden descriptor from electro</t>
+  </si>
+  <si>
+    <t>Burden descriptor from polaribility</t>
+  </si>
+  <si>
+    <t>all reference value are included in rd partial charge</t>
   </si>
 </sst>
 </file>
@@ -652,12 +914,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -672,9 +940,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1279,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1648,7 +1920,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,6 +1936,9 @@
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1860,7 +2135,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,6 +2153,9 @@
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2339,7 +2617,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,6 +2629,9 @@
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2921,17 +3202,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669C31E-62DC-4D85-A64E-E0B4A29701C2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="45" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,6 +3248,18 @@
       <c r="B3">
         <v>32.921999999999997</v>
       </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32.921875</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2969,6 +3268,18 @@
       <c r="B4">
         <v>15.728</v>
       </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30.643229000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2977,6 +3288,18 @@
       <c r="B5">
         <v>8.2959999999999994</v>
       </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29.166667</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2985,6 +3308,18 @@
       <c r="B6">
         <v>32.921999999999997</v>
       </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.545000000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2993,6 +3328,18 @@
       <c r="B7">
         <v>15.728</v>
       </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12.087168999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3001,6 +3348,18 @@
       <c r="B8">
         <v>8.2959999999999994</v>
       </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.0394220000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3008,6 +3367,990 @@
       </c>
       <c r="B9">
         <v>12.0417957209302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.7428150000000002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>-5.62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72858A2C-2AA5-472D-AF80-6EFF17405DD1}">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3">
+        <v>1.244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3">
+        <v>1.244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>1.2989999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5">
+        <v>1.579</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6">
+        <v>1.7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8">
+        <v>1.944</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8">
+        <v>1.944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9">
+        <v>1.946</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9">
+        <v>1.946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10">
+        <v>1.952</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10">
+        <v>1.952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11">
+        <v>3.1440000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12">
+        <v>3.222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>3.222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>3.3679999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14">
+        <v>3.645</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15">
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15">
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16">
+        <v>3.8069999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17">
+        <v>3.835</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>4.0839999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20">
+        <v>1.42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21">
+        <v>1.7070000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23">
+        <v>1.9059999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24">
+        <v>1.93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>1.992</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26">
+        <v>1.992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27">
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27">
+        <v>2.9630000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28">
+        <v>3.036</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28">
+        <v>3.036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29">
+        <v>3.1840000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30">
+        <v>3.5459999999999998</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30">
+        <v>3.5459999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31">
+        <v>3.782</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31">
+        <v>3.782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33">
+        <v>3.8039999999999998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33">
+        <v>3.8039999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34">
+        <v>3.9239999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35">
+        <v>1.117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35">
+        <v>1.117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36">
+        <v>1.1779999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37">
+        <v>1.446</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38">
+        <v>1.536</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38">
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39">
+        <v>1.766</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39">
+        <v>1.766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40">
+        <v>1.841</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41">
+        <v>1.8440000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42">
+        <v>1.861</v>
+      </c>
+      <c r="C42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42">
+        <v>1.861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43">
+        <v>3.1840000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44">
+        <v>3.2770000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45">
+        <v>3.4039999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46">
+        <v>3.714</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46">
+        <v>3.714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47">
+        <v>3.8460000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48">
+        <v>3.8570000000000002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48">
+        <v>3.8570000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="C50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50">
+        <v>4.0970000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51">
+        <v>1.395</v>
+      </c>
+      <c r="C51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51">
+        <v>1.395</v>
+      </c>
+      <c r="E51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52">
+        <v>1.43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53">
+        <v>1.7090000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54">
+        <v>1.7390000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55">
+        <v>1.9039999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56">
+        <v>1.9219999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57">
+        <v>1.9319999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58">
+        <v>2.0110000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59">
+        <v>2.956</v>
+      </c>
+      <c r="C59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59">
+        <v>2.956</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="C60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60">
+        <v>3.0310000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61">
+        <v>3.165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62">
+        <v>3.5449999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63">
+        <v>3.786</v>
+      </c>
+      <c r="C63" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63">
+        <v>3.786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64">
+        <v>3.79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66">
+        <v>3.9079999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA9D60-39DF-46F2-9024-EB4735C54D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BF462-BECE-4FF3-8694-ADB6F497DE4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Connectivity" sheetId="4" r:id="rId4"/>
     <sheet name="kappa" sheetId="5" r:id="rId5"/>
     <sheet name="bcut" sheetId="6" r:id="rId6"/>
+    <sheet name="basak" sheetId="7" r:id="rId7"/>
+    <sheet name="Estate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="805">
   <si>
     <t>Constitutional</t>
   </si>
@@ -891,13 +893,1567 @@
   </si>
   <si>
     <t>all reference value are included in rd partial charge</t>
+  </si>
+  <si>
+    <t>CIC0</t>
+  </si>
+  <si>
+    <t>CIC1</t>
+  </si>
+  <si>
+    <t>CIC2</t>
+  </si>
+  <si>
+    <t>CIC3</t>
+  </si>
+  <si>
+    <t>CIC4</t>
+  </si>
+  <si>
+    <t>CIC5</t>
+  </si>
+  <si>
+    <t>CIC6</t>
+  </si>
+  <si>
+    <t>SIC0</t>
+  </si>
+  <si>
+    <t>SIC1</t>
+  </si>
+  <si>
+    <t>SIC2</t>
+  </si>
+  <si>
+    <t>SIC3</t>
+  </si>
+  <si>
+    <t>SIC4</t>
+  </si>
+  <si>
+    <t>SIC5</t>
+  </si>
+  <si>
+    <t>SIC6</t>
+  </si>
+  <si>
+    <t>IC0</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>basak</t>
+  </si>
+  <si>
+    <t>log2(N) - IC0</t>
+  </si>
+  <si>
+    <t>IC0/log2(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For basak the structure is protonated </t>
+  </si>
+  <si>
+    <t>optimize sources</t>
+  </si>
+  <si>
+    <t>Sfinger1</t>
+  </si>
+  <si>
+    <t>Sfinger2</t>
+  </si>
+  <si>
+    <t>Sfinger3</t>
+  </si>
+  <si>
+    <t>Sfinger4</t>
+  </si>
+  <si>
+    <t>Sfinger5</t>
+  </si>
+  <si>
+    <t>Sfinger6</t>
+  </si>
+  <si>
+    <t>Sfinger7</t>
+  </si>
+  <si>
+    <t>Sfinger8</t>
+  </si>
+  <si>
+    <t>Sfinger9</t>
+  </si>
+  <si>
+    <t>Sfinger10</t>
+  </si>
+  <si>
+    <t>Sfinger11</t>
+  </si>
+  <si>
+    <t>Sfinger12</t>
+  </si>
+  <si>
+    <t>Sfinger13</t>
+  </si>
+  <si>
+    <t>Sfinger14</t>
+  </si>
+  <si>
+    <t>Sfinger15</t>
+  </si>
+  <si>
+    <t>Sfinger16</t>
+  </si>
+  <si>
+    <t>Sfinger17</t>
+  </si>
+  <si>
+    <t>Sfinger18</t>
+  </si>
+  <si>
+    <t>Sfinger19</t>
+  </si>
+  <si>
+    <t>Sfinger20</t>
+  </si>
+  <si>
+    <t>Sfinger21</t>
+  </si>
+  <si>
+    <t>Sfinger22</t>
+  </si>
+  <si>
+    <t>Sfinger23</t>
+  </si>
+  <si>
+    <t>Sfinger24</t>
+  </si>
+  <si>
+    <t>Sfinger25</t>
+  </si>
+  <si>
+    <t>Sfinger26</t>
+  </si>
+  <si>
+    <t>Sfinger27</t>
+  </si>
+  <si>
+    <t>Sfinger28</t>
+  </si>
+  <si>
+    <t>Sfinger29</t>
+  </si>
+  <si>
+    <t>Sfinger30</t>
+  </si>
+  <si>
+    <t>Sfinger31</t>
+  </si>
+  <si>
+    <t>Sfinger32</t>
+  </si>
+  <si>
+    <t>Sfinger33</t>
+  </si>
+  <si>
+    <t>Sfinger34</t>
+  </si>
+  <si>
+    <t>Sfinger35</t>
+  </si>
+  <si>
+    <t>Sfinger36</t>
+  </si>
+  <si>
+    <t>Sfinger37</t>
+  </si>
+  <si>
+    <t>Sfinger38</t>
+  </si>
+  <si>
+    <t>Sfinger39</t>
+  </si>
+  <si>
+    <t>Sfinger40</t>
+  </si>
+  <si>
+    <t>Sfinger41</t>
+  </si>
+  <si>
+    <t>Sfinger42</t>
+  </si>
+  <si>
+    <t>Sfinger43</t>
+  </si>
+  <si>
+    <t>Sfinger44</t>
+  </si>
+  <si>
+    <t>Sfinger45</t>
+  </si>
+  <si>
+    <t>Sfinger46</t>
+  </si>
+  <si>
+    <t>Sfinger47</t>
+  </si>
+  <si>
+    <t>Sfinger48</t>
+  </si>
+  <si>
+    <t>Sfinger49</t>
+  </si>
+  <si>
+    <t>Sfinger50</t>
+  </si>
+  <si>
+    <t>Sfinger51</t>
+  </si>
+  <si>
+    <t>Sfinger52</t>
+  </si>
+  <si>
+    <t>Sfinger53</t>
+  </si>
+  <si>
+    <t>Sfinger54</t>
+  </si>
+  <si>
+    <t>Sfinger55</t>
+  </si>
+  <si>
+    <t>Sfinger56</t>
+  </si>
+  <si>
+    <t>Sfinger57</t>
+  </si>
+  <si>
+    <t>Sfinger58</t>
+  </si>
+  <si>
+    <t>Sfinger59</t>
+  </si>
+  <si>
+    <t>Sfinger60</t>
+  </si>
+  <si>
+    <t>Sfinger61</t>
+  </si>
+  <si>
+    <t>Sfinger62</t>
+  </si>
+  <si>
+    <t>Sfinger63</t>
+  </si>
+  <si>
+    <t>Sfinger64</t>
+  </si>
+  <si>
+    <t>Sfinger65</t>
+  </si>
+  <si>
+    <t>Sfinger66</t>
+  </si>
+  <si>
+    <t>Sfinger67</t>
+  </si>
+  <si>
+    <t>Sfinger68</t>
+  </si>
+  <si>
+    <t>Sfinger69</t>
+  </si>
+  <si>
+    <t>Sfinger70</t>
+  </si>
+  <si>
+    <t>Sfinger71</t>
+  </si>
+  <si>
+    <t>Sfinger72</t>
+  </si>
+  <si>
+    <t>Sfinger73</t>
+  </si>
+  <si>
+    <t>Sfinger74</t>
+  </si>
+  <si>
+    <t>Sfinger75</t>
+  </si>
+  <si>
+    <t>Sfinger76</t>
+  </si>
+  <si>
+    <t>Sfinger77</t>
+  </si>
+  <si>
+    <t>Sfinger78</t>
+  </si>
+  <si>
+    <t>Sfinger79</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>S68</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>S70</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S77</t>
+  </si>
+  <si>
+    <t>S78</t>
+  </si>
+  <si>
+    <t>S79</t>
+  </si>
+  <si>
+    <t>Smax0</t>
+  </si>
+  <si>
+    <t>Smax1</t>
+  </si>
+  <si>
+    <t>Smax2</t>
+  </si>
+  <si>
+    <t>Smax3</t>
+  </si>
+  <si>
+    <t>Smax4</t>
+  </si>
+  <si>
+    <t>Smax5</t>
+  </si>
+  <si>
+    <t>Smax6</t>
+  </si>
+  <si>
+    <t>Smax7</t>
+  </si>
+  <si>
+    <t>Smax8</t>
+  </si>
+  <si>
+    <t>Smax9</t>
+  </si>
+  <si>
+    <t>Smax10</t>
+  </si>
+  <si>
+    <t>Smax11</t>
+  </si>
+  <si>
+    <t>Smax12</t>
+  </si>
+  <si>
+    <t>Smax13</t>
+  </si>
+  <si>
+    <t>Smax14</t>
+  </si>
+  <si>
+    <t>Smax15</t>
+  </si>
+  <si>
+    <t>Smax16</t>
+  </si>
+  <si>
+    <t>Smax17</t>
+  </si>
+  <si>
+    <t>Smax18</t>
+  </si>
+  <si>
+    <t>Smax19</t>
+  </si>
+  <si>
+    <t>Smax20</t>
+  </si>
+  <si>
+    <t>Smax21</t>
+  </si>
+  <si>
+    <t>Smax22</t>
+  </si>
+  <si>
+    <t>Smax23</t>
+  </si>
+  <si>
+    <t>Smax24</t>
+  </si>
+  <si>
+    <t>Smax25</t>
+  </si>
+  <si>
+    <t>Smax26</t>
+  </si>
+  <si>
+    <t>Smax27</t>
+  </si>
+  <si>
+    <t>Smax28</t>
+  </si>
+  <si>
+    <t>Smax29</t>
+  </si>
+  <si>
+    <t>Smax30</t>
+  </si>
+  <si>
+    <t>Smax31</t>
+  </si>
+  <si>
+    <t>Smax32</t>
+  </si>
+  <si>
+    <t>Smax33</t>
+  </si>
+  <si>
+    <t>Smax34</t>
+  </si>
+  <si>
+    <t>Smax35</t>
+  </si>
+  <si>
+    <t>Smax36</t>
+  </si>
+  <si>
+    <t>Smax37</t>
+  </si>
+  <si>
+    <t>Smax38</t>
+  </si>
+  <si>
+    <t>Smax39</t>
+  </si>
+  <si>
+    <t>Smax40</t>
+  </si>
+  <si>
+    <t>Smax41</t>
+  </si>
+  <si>
+    <t>Smax42</t>
+  </si>
+  <si>
+    <t>Smax43</t>
+  </si>
+  <si>
+    <t>Smax44</t>
+  </si>
+  <si>
+    <t>Smax45</t>
+  </si>
+  <si>
+    <t>Smax46</t>
+  </si>
+  <si>
+    <t>Smax47</t>
+  </si>
+  <si>
+    <t>Smax48</t>
+  </si>
+  <si>
+    <t>Smax49</t>
+  </si>
+  <si>
+    <t>Smax50</t>
+  </si>
+  <si>
+    <t>Smax51</t>
+  </si>
+  <si>
+    <t>Smax52</t>
+  </si>
+  <si>
+    <t>Smax53</t>
+  </si>
+  <si>
+    <t>Smax54</t>
+  </si>
+  <si>
+    <t>Smax55</t>
+  </si>
+  <si>
+    <t>Smax56</t>
+  </si>
+  <si>
+    <t>Smax57</t>
+  </si>
+  <si>
+    <t>Smax58</t>
+  </si>
+  <si>
+    <t>Smax59</t>
+  </si>
+  <si>
+    <t>Smax60</t>
+  </si>
+  <si>
+    <t>Smax61</t>
+  </si>
+  <si>
+    <t>Smax62</t>
+  </si>
+  <si>
+    <t>Smax63</t>
+  </si>
+  <si>
+    <t>Smax64</t>
+  </si>
+  <si>
+    <t>Smax65</t>
+  </si>
+  <si>
+    <t>Smax66</t>
+  </si>
+  <si>
+    <t>Smax67</t>
+  </si>
+  <si>
+    <t>Smax68</t>
+  </si>
+  <si>
+    <t>Smax69</t>
+  </si>
+  <si>
+    <t>Smax70</t>
+  </si>
+  <si>
+    <t>Smax71</t>
+  </si>
+  <si>
+    <t>Smax72</t>
+  </si>
+  <si>
+    <t>Smax73</t>
+  </si>
+  <si>
+    <t>Smax74</t>
+  </si>
+  <si>
+    <t>Smax75</t>
+  </si>
+  <si>
+    <t>Smax76</t>
+  </si>
+  <si>
+    <t>Smax77</t>
+  </si>
+  <si>
+    <t>Smax78</t>
+  </si>
+  <si>
+    <t>Smin0</t>
+  </si>
+  <si>
+    <t>Smin1</t>
+  </si>
+  <si>
+    <t>Smin2</t>
+  </si>
+  <si>
+    <t>Smin3</t>
+  </si>
+  <si>
+    <t>Smin4</t>
+  </si>
+  <si>
+    <t>Smin5</t>
+  </si>
+  <si>
+    <t>Smin6</t>
+  </si>
+  <si>
+    <t>Smin7</t>
+  </si>
+  <si>
+    <t>Smin8</t>
+  </si>
+  <si>
+    <t>Smin9</t>
+  </si>
+  <si>
+    <t>Smin10</t>
+  </si>
+  <si>
+    <t>Smin11</t>
+  </si>
+  <si>
+    <t>Smin12</t>
+  </si>
+  <si>
+    <t>Smin13</t>
+  </si>
+  <si>
+    <t>Smin14</t>
+  </si>
+  <si>
+    <t>Smin15</t>
+  </si>
+  <si>
+    <t>Smin16</t>
+  </si>
+  <si>
+    <t>Smin17</t>
+  </si>
+  <si>
+    <t>Smin18</t>
+  </si>
+  <si>
+    <t>Smin19</t>
+  </si>
+  <si>
+    <t>Smin20</t>
+  </si>
+  <si>
+    <t>Smin21</t>
+  </si>
+  <si>
+    <t>Smin22</t>
+  </si>
+  <si>
+    <t>Smin23</t>
+  </si>
+  <si>
+    <t>Smin24</t>
+  </si>
+  <si>
+    <t>Smin25</t>
+  </si>
+  <si>
+    <t>Smin26</t>
+  </si>
+  <si>
+    <t>Smin27</t>
+  </si>
+  <si>
+    <t>Smin28</t>
+  </si>
+  <si>
+    <t>Smin29</t>
+  </si>
+  <si>
+    <t>Smin30</t>
+  </si>
+  <si>
+    <t>Smin31</t>
+  </si>
+  <si>
+    <t>Smin32</t>
+  </si>
+  <si>
+    <t>Smin33</t>
+  </si>
+  <si>
+    <t>Smin34</t>
+  </si>
+  <si>
+    <t>Smin35</t>
+  </si>
+  <si>
+    <t>Smin36</t>
+  </si>
+  <si>
+    <t>Smin37</t>
+  </si>
+  <si>
+    <t>Smin38</t>
+  </si>
+  <si>
+    <t>Smin39</t>
+  </si>
+  <si>
+    <t>Smin40</t>
+  </si>
+  <si>
+    <t>Smin41</t>
+  </si>
+  <si>
+    <t>Smin42</t>
+  </si>
+  <si>
+    <t>Smin43</t>
+  </si>
+  <si>
+    <t>Smin44</t>
+  </si>
+  <si>
+    <t>Smin45</t>
+  </si>
+  <si>
+    <t>Smin46</t>
+  </si>
+  <si>
+    <t>Smin47</t>
+  </si>
+  <si>
+    <t>Smin48</t>
+  </si>
+  <si>
+    <t>Smin49</t>
+  </si>
+  <si>
+    <t>Smin50</t>
+  </si>
+  <si>
+    <t>Smin51</t>
+  </si>
+  <si>
+    <t>Smin52</t>
+  </si>
+  <si>
+    <t>Smin53</t>
+  </si>
+  <si>
+    <t>Smin54</t>
+  </si>
+  <si>
+    <t>Smin55</t>
+  </si>
+  <si>
+    <t>Smin56</t>
+  </si>
+  <si>
+    <t>Smin57</t>
+  </si>
+  <si>
+    <t>Smin58</t>
+  </si>
+  <si>
+    <t>Smin59</t>
+  </si>
+  <si>
+    <t>Smin60</t>
+  </si>
+  <si>
+    <t>Smin61</t>
+  </si>
+  <si>
+    <t>Smin62</t>
+  </si>
+  <si>
+    <t>Smin63</t>
+  </si>
+  <si>
+    <t>Smin64</t>
+  </si>
+  <si>
+    <t>Smin65</t>
+  </si>
+  <si>
+    <t>Smin66</t>
+  </si>
+  <si>
+    <t>Smin67</t>
+  </si>
+  <si>
+    <t>Smin68</t>
+  </si>
+  <si>
+    <t>Smin69</t>
+  </si>
+  <si>
+    <t>Smin70</t>
+  </si>
+  <si>
+    <t>Smin71</t>
+  </si>
+  <si>
+    <t>Smin72</t>
+  </si>
+  <si>
+    <t>Smin73</t>
+  </si>
+  <si>
+    <t>Smin74</t>
+  </si>
+  <si>
+    <t>Smin75</t>
+  </si>
+  <si>
+    <t>Smin76</t>
+  </si>
+  <si>
+    <t>Smin77</t>
+  </si>
+  <si>
+    <t>Smin78</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>Fingerprint from 79 fragment found in Hall and Kier JCICS _35_ 1039-1045 (1995)</t>
+  </si>
+  <si>
+    <t>Cfrag1</t>
+  </si>
+  <si>
+    <t>Cfrag2</t>
+  </si>
+  <si>
+    <t>Cfrag3</t>
+  </si>
+  <si>
+    <t>Cfrag4</t>
+  </si>
+  <si>
+    <t>Cfrag5</t>
+  </si>
+  <si>
+    <t>Cfrag6</t>
+  </si>
+  <si>
+    <t>Cfrag7</t>
+  </si>
+  <si>
+    <t>Cfrag8</t>
+  </si>
+  <si>
+    <t>Cfrag9</t>
+  </si>
+  <si>
+    <t>Cfrag10</t>
+  </si>
+  <si>
+    <t>Cfrag11</t>
+  </si>
+  <si>
+    <t>Cfrag12</t>
+  </si>
+  <si>
+    <t>Cfrag13</t>
+  </si>
+  <si>
+    <t>Cfrag14</t>
+  </si>
+  <si>
+    <t>Cfrag15</t>
+  </si>
+  <si>
+    <t>Cfrag16</t>
+  </si>
+  <si>
+    <t>Cfrag17</t>
+  </si>
+  <si>
+    <t>Cfrag18</t>
+  </si>
+  <si>
+    <t>Cfrag19</t>
+  </si>
+  <si>
+    <t>Cfrag20</t>
+  </si>
+  <si>
+    <t>Cfrag21</t>
+  </si>
+  <si>
+    <t>Cfrag22</t>
+  </si>
+  <si>
+    <t>Cfrag23</t>
+  </si>
+  <si>
+    <t>Cfrag24</t>
+  </si>
+  <si>
+    <t>Cfrag25</t>
+  </si>
+  <si>
+    <t>Cfrag26</t>
+  </si>
+  <si>
+    <t>Cfrag27</t>
+  </si>
+  <si>
+    <t>Cfrag28</t>
+  </si>
+  <si>
+    <t>Cfrag29</t>
+  </si>
+  <si>
+    <t>Cfrag30</t>
+  </si>
+  <si>
+    <t>Cfrag31</t>
+  </si>
+  <si>
+    <t>Cfrag32</t>
+  </si>
+  <si>
+    <t>Cfrag33</t>
+  </si>
+  <si>
+    <t>Cfrag34</t>
+  </si>
+  <si>
+    <t>Cfrag35</t>
+  </si>
+  <si>
+    <t>Cfrag36</t>
+  </si>
+  <si>
+    <t>Cfrag37</t>
+  </si>
+  <si>
+    <t>Cfrag38</t>
+  </si>
+  <si>
+    <t>Cfrag39</t>
+  </si>
+  <si>
+    <t>Cfrag40</t>
+  </si>
+  <si>
+    <t>Cfrag41</t>
+  </si>
+  <si>
+    <t>Cfrag42</t>
+  </si>
+  <si>
+    <t>Cfrag43</t>
+  </si>
+  <si>
+    <t>Cfrag44</t>
+  </si>
+  <si>
+    <t>Cfrag45</t>
+  </si>
+  <si>
+    <t>Cfrag46</t>
+  </si>
+  <si>
+    <t>Cfrag47</t>
+  </si>
+  <si>
+    <t>Cfrag48</t>
+  </si>
+  <si>
+    <t>Cfrag49</t>
+  </si>
+  <si>
+    <t>Cfrag50</t>
+  </si>
+  <si>
+    <t>Cfrag51</t>
+  </si>
+  <si>
+    <t>Cfrag52</t>
+  </si>
+  <si>
+    <t>Cfrag53</t>
+  </si>
+  <si>
+    <t>Cfrag54</t>
+  </si>
+  <si>
+    <t>Cfrag55</t>
+  </si>
+  <si>
+    <t>Cfrag56</t>
+  </si>
+  <si>
+    <t>Cfrag57</t>
+  </si>
+  <si>
+    <t>Cfrag58</t>
+  </si>
+  <si>
+    <t>Cfrag59</t>
+  </si>
+  <si>
+    <t>Cfrag60</t>
+  </si>
+  <si>
+    <t>Cfrag61</t>
+  </si>
+  <si>
+    <t>Cfrag62</t>
+  </si>
+  <si>
+    <t>Cfrag63</t>
+  </si>
+  <si>
+    <t>Cfrag64</t>
+  </si>
+  <si>
+    <t>Cfrag65</t>
+  </si>
+  <si>
+    <t>Cfrag66</t>
+  </si>
+  <si>
+    <t>Cfrag67</t>
+  </si>
+  <si>
+    <t>Cfrag68</t>
+  </si>
+  <si>
+    <t>Cfrag69</t>
+  </si>
+  <si>
+    <t>Cfrag70</t>
+  </si>
+  <si>
+    <t>Cfrag71</t>
+  </si>
+  <si>
+    <t>Cfrag72</t>
+  </si>
+  <si>
+    <t>Cfrag73</t>
+  </si>
+  <si>
+    <t>Cfrag74</t>
+  </si>
+  <si>
+    <t>Cfrag75</t>
+  </si>
+  <si>
+    <t>Cfrag76</t>
+  </si>
+  <si>
+    <t>Cfrag77</t>
+  </si>
+  <si>
+    <t>Cfrag78</t>
+  </si>
+  <si>
+    <t>Cfrag79</t>
+  </si>
+  <si>
+    <t>SEStatefrag1</t>
+  </si>
+  <si>
+    <t>Sum estate by frag</t>
+  </si>
+  <si>
+    <t>SEStatefrag2</t>
+  </si>
+  <si>
+    <t>SEStatefrag3</t>
+  </si>
+  <si>
+    <t>SEStatefrag4</t>
+  </si>
+  <si>
+    <t>SEStatefrag5</t>
+  </si>
+  <si>
+    <t>SEStatefrag6</t>
+  </si>
+  <si>
+    <t>SEStatefrag7</t>
+  </si>
+  <si>
+    <t>SEStatefrag8</t>
+  </si>
+  <si>
+    <t>SEStatefrag9</t>
+  </si>
+  <si>
+    <t>SEStatefrag10</t>
+  </si>
+  <si>
+    <t>SEStatefrag11</t>
+  </si>
+  <si>
+    <t>SEStatefrag12</t>
+  </si>
+  <si>
+    <t>SEStatefrag13</t>
+  </si>
+  <si>
+    <t>SEStatefrag14</t>
+  </si>
+  <si>
+    <t>SEStatefrag15</t>
+  </si>
+  <si>
+    <t>SEStatefrag16</t>
+  </si>
+  <si>
+    <t>SEStatefrag17</t>
+  </si>
+  <si>
+    <t>SEStatefrag18</t>
+  </si>
+  <si>
+    <t>SEStatefrag19</t>
+  </si>
+  <si>
+    <t>SEStatefrag20</t>
+  </si>
+  <si>
+    <t>SEStatefrag21</t>
+  </si>
+  <si>
+    <t>SEStatefrag22</t>
+  </si>
+  <si>
+    <t>SEStatefrag23</t>
+  </si>
+  <si>
+    <t>SEStatefrag24</t>
+  </si>
+  <si>
+    <t>SEStatefrag25</t>
+  </si>
+  <si>
+    <t>SEStatefrag26</t>
+  </si>
+  <si>
+    <t>SEStatefrag27</t>
+  </si>
+  <si>
+    <t>SEStatefrag28</t>
+  </si>
+  <si>
+    <t>SEStatefrag29</t>
+  </si>
+  <si>
+    <t>SEStatefrag30</t>
+  </si>
+  <si>
+    <t>SEStatefrag31</t>
+  </si>
+  <si>
+    <t>SEStatefrag32</t>
+  </si>
+  <si>
+    <t>SEStatefrag33</t>
+  </si>
+  <si>
+    <t>SEStatefrag34</t>
+  </si>
+  <si>
+    <t>SEStatefrag35</t>
+  </si>
+  <si>
+    <t>SEStatefrag36</t>
+  </si>
+  <si>
+    <t>SEStatefrag37</t>
+  </si>
+  <si>
+    <t>SEStatefrag38</t>
+  </si>
+  <si>
+    <t>SEStatefrag39</t>
+  </si>
+  <si>
+    <t>SEStatefrag40</t>
+  </si>
+  <si>
+    <t>SEStatefrag41</t>
+  </si>
+  <si>
+    <t>SEStatefrag42</t>
+  </si>
+  <si>
+    <t>SEStatefrag43</t>
+  </si>
+  <si>
+    <t>SEStatefrag44</t>
+  </si>
+  <si>
+    <t>SEStatefrag45</t>
+  </si>
+  <si>
+    <t>SEStatefrag46</t>
+  </si>
+  <si>
+    <t>SEStatefrag47</t>
+  </si>
+  <si>
+    <t>SEStatefrag48</t>
+  </si>
+  <si>
+    <t>SEStatefrag49</t>
+  </si>
+  <si>
+    <t>SEStatefrag50</t>
+  </si>
+  <si>
+    <t>SEStatefrag51</t>
+  </si>
+  <si>
+    <t>SEStatefrag52</t>
+  </si>
+  <si>
+    <t>SEStatefrag53</t>
+  </si>
+  <si>
+    <t>SEStatefrag54</t>
+  </si>
+  <si>
+    <t>SEStatefrag55</t>
+  </si>
+  <si>
+    <t>SEStatefrag56</t>
+  </si>
+  <si>
+    <t>SEStatefrag57</t>
+  </si>
+  <si>
+    <t>SEStatefrag58</t>
+  </si>
+  <si>
+    <t>SEStatefrag59</t>
+  </si>
+  <si>
+    <t>SEStatefrag60</t>
+  </si>
+  <si>
+    <t>SEStatefrag61</t>
+  </si>
+  <si>
+    <t>SEStatefrag62</t>
+  </si>
+  <si>
+    <t>SEStatefrag63</t>
+  </si>
+  <si>
+    <t>SEStatefrag64</t>
+  </si>
+  <si>
+    <t>SEStatefrag65</t>
+  </si>
+  <si>
+    <t>SEStatefrag66</t>
+  </si>
+  <si>
+    <t>SEStatefrag67</t>
+  </si>
+  <si>
+    <t>SEStatefrag68</t>
+  </si>
+  <si>
+    <t>SEStatefrag69</t>
+  </si>
+  <si>
+    <t>SEStatefrag70</t>
+  </si>
+  <si>
+    <t>SEStatefrag71</t>
+  </si>
+  <si>
+    <t>SEStatefrag72</t>
+  </si>
+  <si>
+    <t>SEStatefrag73</t>
+  </si>
+  <si>
+    <t>SEStatefrag74</t>
+  </si>
+  <si>
+    <t>SEStatefrag75</t>
+  </si>
+  <si>
+    <t>SEStatefrag76</t>
+  </si>
+  <si>
+    <t>SEStatefrag77</t>
+  </si>
+  <si>
+    <t>SEStatefrag78</t>
+  </si>
+  <si>
+    <t>SEStatefrag79</t>
+  </si>
+  <si>
+    <t>Rewrite and use RDKIT3.1 sources</t>
+  </si>
+  <si>
+    <t>Dell not relevante and not anymore included in RDkit3.1</t>
+  </si>
+  <si>
+    <t>MaxEStateIndex</t>
+  </si>
+  <si>
+    <t>MinEStateIndex</t>
+  </si>
+  <si>
+    <t>From RDKIT 3.1, state estimated by atom</t>
+  </si>
+  <si>
+    <t>EStateVSA1</t>
+  </si>
+  <si>
+    <t>EStateVSA2</t>
+  </si>
+  <si>
+    <t>EStateVSA3</t>
+  </si>
+  <si>
+    <t>EStateVSA4</t>
+  </si>
+  <si>
+    <t>EStateVSA5</t>
+  </si>
+  <si>
+    <t>EStateVSA6</t>
+  </si>
+  <si>
+    <t>EStateVSA7</t>
+  </si>
+  <si>
+    <t>EStateVSA8</t>
+  </si>
+  <si>
+    <t>EStateVSA9</t>
+  </si>
+  <si>
+    <t>EStateVSA10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -913,8 +2469,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +2487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,10 +2509,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +4187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86D9B3E-6761-4EC5-BC24-988202167197}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3205,7 +4776,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72858A2C-2AA5-472D-AF80-6EFF17405DD1}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,4 +5927,4440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311BC8BE-1294-4485-8840-E8D10724D4F9}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="D3">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4">
+        <v>2.855</v>
+      </c>
+      <c r="D4">
+        <v>2.8552209999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5">
+        <v>1.833</v>
+      </c>
+      <c r="D5">
+        <v>1.8329770000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6">
+        <v>1.391</v>
+      </c>
+      <c r="D6">
+        <v>1.3907119999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.98558199999999996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.72808499999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.55882399999999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.273005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.53096699999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.69889299999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.77154500000000004</v>
+      </c>
+      <c r="F13" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.83809599999999995</v>
+      </c>
+      <c r="F14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15">
+        <v>0.88</v>
+      </c>
+      <c r="D15">
+        <v>0.88039599999999996</v>
+      </c>
+      <c r="F15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.90820100000000004</v>
+      </c>
+      <c r="F16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.66191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="D18">
+        <v>3.2322410000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="D19">
+        <v>4.254486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="D20">
+        <v>4.6967509999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21">
+        <v>5.1020000000000003</v>
+      </c>
+      <c r="D21">
+        <v>5.1018809999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22">
+        <v>5.359</v>
+      </c>
+      <c r="D22">
+        <v>5.3593780000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <v>5.5289999999999999</v>
+      </c>
+      <c r="D23">
+        <v>5.5286390000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16169526-9B51-4495-9715-07B3E3E4FE8E}">
+  <dimension ref="A1:F330"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>644</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>645</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>647</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>649</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>653</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>655</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>657</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>659</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>660</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>661</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>662</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>663</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>664</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>666</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>667</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>668</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>669</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>670</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>671</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>673</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>674</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>675</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>358</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>676</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>677</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>678</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>679</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>680</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>681</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>682</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>683</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>684</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>685</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>686</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>687</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>688</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>689</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>690</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>691</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>692</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>693</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>694</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>377</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>695</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>696</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>697</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>698</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>381</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>699</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>700</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>701</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>702</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>703</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>704</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>705</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>706</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>707</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>390</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>708</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>709</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>710</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>712</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>713</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>395</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>714</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>715</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>397</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>716</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>717</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>399</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>718</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>719</v>
+      </c>
+      <c r="D90">
+        <v>-2.7243898167072102E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>720</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>402</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>721</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>403</v>
+      </c>
+      <c r="B93">
+        <v>27.018000000000001</v>
+      </c>
+      <c r="C93" t="s">
+        <v>722</v>
+      </c>
+      <c r="D93">
+        <v>27.017505894528298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94">
+        <v>-2.3889999999999998</v>
+      </c>
+      <c r="C94" t="s">
+        <v>723</v>
+      </c>
+      <c r="D94">
+        <v>-2.3893930446231599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>405</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>724</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>725</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>407</v>
+      </c>
+      <c r="B97">
+        <v>-1.444</v>
+      </c>
+      <c r="C97" t="s">
+        <v>726</v>
+      </c>
+      <c r="D97">
+        <v>-1.4438163898763301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C98" t="s">
+        <v>727</v>
+      </c>
+      <c r="D98">
+        <v>0.52267106282376197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>409</v>
+      </c>
+      <c r="B99">
+        <v>0.255</v>
+      </c>
+      <c r="C99" t="s">
+        <v>728</v>
+      </c>
+      <c r="D99">
+        <v>0.25529119720764898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>410</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>729</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>730</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>412</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>731</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>413</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>732</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>414</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>733</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>415</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>734</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>416</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>735</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>417</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>736</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>737</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>419</v>
+      </c>
+      <c r="B109">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="C109" t="s">
+        <v>738</v>
+      </c>
+      <c r="D109">
+        <v>4.0492741348481402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>420</v>
+      </c>
+      <c r="B110">
+        <v>12.545999999999999</v>
+      </c>
+      <c r="C110" t="s">
+        <v>739</v>
+      </c>
+      <c r="D110">
+        <v>12.5455754383421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>421</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>740</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>741</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>423</v>
+      </c>
+      <c r="B113">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="C113" t="s">
+        <v>742</v>
+      </c>
+      <c r="D113">
+        <v>1.5393735827664301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>424</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>743</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>425</v>
+      </c>
+      <c r="B115">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="C115" t="s">
+        <v>744</v>
+      </c>
+      <c r="D115">
+        <v>21.001966612041699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>426</v>
+      </c>
+      <c r="B116">
+        <v>25.547999999999998</v>
+      </c>
+      <c r="C116" t="s">
+        <v>745</v>
+      </c>
+      <c r="D116">
+        <v>25.547557586645901</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>427</v>
+      </c>
+      <c r="B117">
+        <v>17.547999999999998</v>
+      </c>
+      <c r="C117" t="s">
+        <v>746</v>
+      </c>
+      <c r="D117">
+        <v>17.547904490129099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>428</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>747</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>429</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>748</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>749</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>750</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>432</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>751</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>433</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>752</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>434</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>753</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>435</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>754</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>755</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>437</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>756</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>438</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>757</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>439</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>758</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>440</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>759</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>441</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>760</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>442</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>761</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>443</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>762</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>444</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>763</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>445</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>764</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>446</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>765</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>447</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>766</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>448</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>767</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>449</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>768</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>769</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>451</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>770</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>452</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>771</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>772</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>454</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>773</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>455</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>774</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>456</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>775</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>776</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>458</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>777</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>778</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>460</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>779</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>461</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>780</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>462</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>781</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>463</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>782</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>464</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>783</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>465</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>784</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>466</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>785</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>786</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>468</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>787</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>469</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>788</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>470</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>789</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>792</v>
+      </c>
+      <c r="D161">
+        <v>12.923580340853</v>
+      </c>
+      <c r="F161" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>793</v>
+      </c>
+      <c r="D162">
+        <v>-0.82145834599575296</v>
+      </c>
+      <c r="F162" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>795</v>
+      </c>
+      <c r="D163">
+        <v>36.254432858570503</v>
+      </c>
+      <c r="F163" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>796</v>
+      </c>
+      <c r="D164">
+        <v>36.037666151167002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>797</v>
+      </c>
+      <c r="D165">
+        <v>16.690354475090899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>798</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>799</v>
+      </c>
+      <c r="D167">
+        <v>10.894419722555799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>800</v>
+      </c>
+      <c r="D168">
+        <v>90.995506026924105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>801</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>802</v>
+      </c>
+      <c r="D170">
+        <v>19.9443402954772</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>803</v>
+      </c>
+      <c r="D171">
+        <v>14.210588861400099</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>804</v>
+      </c>
+      <c r="D172">
+        <v>19.802129157825</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F181" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="F184" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B185" s="4">
+        <v>-0.77100000000000002</v>
+      </c>
+      <c r="F185" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B188" s="4">
+        <v>-0.33700000000000002</v>
+      </c>
+      <c r="F188" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0.439</v>
+      </c>
+      <c r="F189" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F190" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B200" s="4">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="F200" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B201" s="4">
+        <v>4.3869999999999996</v>
+      </c>
+      <c r="F201" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B204" s="4">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="F204" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B206" s="4">
+        <v>10.548999999999999</v>
+      </c>
+      <c r="F206" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B207" s="4">
+        <v>12.923999999999999</v>
+      </c>
+      <c r="F207" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B208" s="4">
+        <v>6.2210000000000001</v>
+      </c>
+      <c r="F208" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="F223" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="F226" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+      <c r="F229" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+      <c r="F230" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
+      <c r="F245" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+      <c r="F250" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+      <c r="F253" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
+      <c r="F254" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+      <c r="F258" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+      <c r="F259" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B260" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="F260" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+      <c r="F262" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B263" s="4">
+        <v>1.405</v>
+      </c>
+      <c r="F263" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B264" s="4">
+        <v>-0.82099999999999995</v>
+      </c>
+      <c r="F264" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+      <c r="F265" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B267" s="4">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="F267" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B268" s="4">
+        <v>-0.443</v>
+      </c>
+      <c r="F268" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B269" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F269" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+      <c r="F270" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+      <c r="F272" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="F276" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B279" s="4">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="F279" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B280" s="4">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="F280" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="F281" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
+      <c r="F282" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B283" s="4">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="F283" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="F284" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B285" s="4">
+        <v>10.452999999999999</v>
+      </c>
+      <c r="F285" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B286" s="4">
+        <v>12.624000000000001</v>
+      </c>
+      <c r="F286" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="4">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="F287" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+      <c r="F290" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+      <c r="F291" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
+      <c r="F294" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
+      <c r="F295" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
+      <c r="F296" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
+      <c r="F299" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301" s="4">
+        <v>0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
+      <c r="F302" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" s="4">
+        <v>0</v>
+      </c>
+      <c r="F303" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
+      <c r="F304" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
+      <c r="F305" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" s="4">
+        <v>0</v>
+      </c>
+      <c r="F306" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="4">
+        <v>0</v>
+      </c>
+      <c r="F307" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B308" s="4">
+        <v>0</v>
+      </c>
+      <c r="F308" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B309" s="4">
+        <v>0</v>
+      </c>
+      <c r="F309" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B310" s="4">
+        <v>0</v>
+      </c>
+      <c r="F310" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B311" s="4">
+        <v>0</v>
+      </c>
+      <c r="F311" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B312" s="4">
+        <v>0</v>
+      </c>
+      <c r="F312" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B313" s="4">
+        <v>0</v>
+      </c>
+      <c r="F313" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B314" s="4">
+        <v>0</v>
+      </c>
+      <c r="F314" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" s="4">
+        <v>0</v>
+      </c>
+      <c r="F315" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B316" s="4">
+        <v>0</v>
+      </c>
+      <c r="F316" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" s="4">
+        <v>0</v>
+      </c>
+      <c r="F317" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" s="4">
+        <v>0</v>
+      </c>
+      <c r="F318" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B319" s="4">
+        <v>0</v>
+      </c>
+      <c r="F319" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B320" s="4">
+        <v>0</v>
+      </c>
+      <c r="F320" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
+      <c r="F321" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B322" s="4">
+        <v>0</v>
+      </c>
+      <c r="F322" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B323" s="4">
+        <v>0</v>
+      </c>
+      <c r="F323" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B324" s="4">
+        <v>0</v>
+      </c>
+      <c r="F324" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B325" s="4">
+        <v>0</v>
+      </c>
+      <c r="F325" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B326" s="4">
+        <v>0</v>
+      </c>
+      <c r="F326" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B327" s="4">
+        <v>0</v>
+      </c>
+      <c r="F327" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B328" s="4">
+        <v>0</v>
+      </c>
+      <c r="F328" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B329" s="4">
+        <v>0</v>
+      </c>
+      <c r="F329" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B330" s="4">
+        <v>0</v>
+      </c>
+      <c r="F330" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BF462-BECE-4FF3-8694-ADB6F497DE4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19FAF3-8CBD-4B76-B904-5BC771A9DD74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="bcut" sheetId="6" r:id="rId6"/>
     <sheet name="basak" sheetId="7" r:id="rId7"/>
     <sheet name="Estate" sheetId="8" r:id="rId8"/>
+    <sheet name="Moreau-Broto autocorrelation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="881">
   <si>
     <t>Constitutional</t>
   </si>
@@ -2447,6 +2448,234 @@
   </si>
   <si>
     <t>EStateVSA10</t>
+  </si>
+  <si>
+    <t>Moreau-Burto</t>
+  </si>
+  <si>
+    <t>ATSm1</t>
+  </si>
+  <si>
+    <t>ATSm2</t>
+  </si>
+  <si>
+    <t>ATSm3</t>
+  </si>
+  <si>
+    <t>ATSm4</t>
+  </si>
+  <si>
+    <t>ATSm5</t>
+  </si>
+  <si>
+    <t>ATSm6</t>
+  </si>
+  <si>
+    <t>ATSm7</t>
+  </si>
+  <si>
+    <t>ATSm8</t>
+  </si>
+  <si>
+    <t>ATSv1</t>
+  </si>
+  <si>
+    <t>ATSv2</t>
+  </si>
+  <si>
+    <t>ATSv3</t>
+  </si>
+  <si>
+    <t>ATSv4</t>
+  </si>
+  <si>
+    <t>ATSv5</t>
+  </si>
+  <si>
+    <t>ATSv6</t>
+  </si>
+  <si>
+    <t>ATSv7</t>
+  </si>
+  <si>
+    <t>ATSv8</t>
+  </si>
+  <si>
+    <t>ATSe1</t>
+  </si>
+  <si>
+    <t>ATSe2</t>
+  </si>
+  <si>
+    <t>ATSe3</t>
+  </si>
+  <si>
+    <t>ATSe4</t>
+  </si>
+  <si>
+    <t>ATSe5</t>
+  </si>
+  <si>
+    <t>ATSe6</t>
+  </si>
+  <si>
+    <t>ATSe7</t>
+  </si>
+  <si>
+    <t>ATSe8</t>
+  </si>
+  <si>
+    <t>ATSp1</t>
+  </si>
+  <si>
+    <t>ATSp2</t>
+  </si>
+  <si>
+    <t>ATSp3</t>
+  </si>
+  <si>
+    <t>ATSp4</t>
+  </si>
+  <si>
+    <t>ATSp5</t>
+  </si>
+  <si>
+    <t>ATSp6</t>
+  </si>
+  <si>
+    <t>ATSp7</t>
+  </si>
+  <si>
+    <t>ATSp8</t>
+  </si>
+  <si>
+    <t>MaxAbsEStateIndex</t>
+  </si>
+  <si>
+    <t>MinAbsEStateIndex</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 1</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 2</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 3</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 4</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 5</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 6</t>
+  </si>
+  <si>
+    <t>MBAm1</t>
+  </si>
+  <si>
+    <t>MBAm2</t>
+  </si>
+  <si>
+    <t>MBAm3</t>
+  </si>
+  <si>
+    <t>MBAm4</t>
+  </si>
+  <si>
+    <t>MBAm5</t>
+  </si>
+  <si>
+    <t>MBAm6</t>
+  </si>
+  <si>
+    <t>MBAm7</t>
+  </si>
+  <si>
+    <t>MBAm8</t>
+  </si>
+  <si>
+    <t>MBAv1</t>
+  </si>
+  <si>
+    <t>MBAv2</t>
+  </si>
+  <si>
+    <t>MBAv3</t>
+  </si>
+  <si>
+    <t>MBAv4</t>
+  </si>
+  <si>
+    <t>MBAv5</t>
+  </si>
+  <si>
+    <t>MBAv6</t>
+  </si>
+  <si>
+    <t>MBAv7</t>
+  </si>
+  <si>
+    <t>MBAv8</t>
+  </si>
+  <si>
+    <t>MBAe1</t>
+  </si>
+  <si>
+    <t>MBAe2</t>
+  </si>
+  <si>
+    <t>MBAe3</t>
+  </si>
+  <si>
+    <t>MBAe4</t>
+  </si>
+  <si>
+    <t>MBAe5</t>
+  </si>
+  <si>
+    <t>MBAe6</t>
+  </si>
+  <si>
+    <t>MBAe7</t>
+  </si>
+  <si>
+    <t>MBAe8</t>
+  </si>
+  <si>
+    <t>MBAp1</t>
+  </si>
+  <si>
+    <t>MBAp2</t>
+  </si>
+  <si>
+    <t>MBAp3</t>
+  </si>
+  <si>
+    <t>MBAp4</t>
+  </si>
+  <si>
+    <t>MBAp5</t>
+  </si>
+  <si>
+    <t>MBAp6</t>
+  </si>
+  <si>
+    <t>MBAp7</t>
+  </si>
+  <si>
+    <t>MBAp8</t>
+  </si>
+  <si>
+    <t>Change name</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 7 (Mass)</t>
+  </si>
+  <si>
+    <t>Correlation related to the distance to each atom equal 8 (Mass)</t>
   </si>
 </sst>
 </file>
@@ -6255,15 +6484,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16169526-9B51-4495-9715-07B3E3E4FE8E}">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166"/>
+    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8540,112 +8769,112 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>795</v>
+        <v>838</v>
       </c>
       <c r="D163">
-        <v>36.254432858570503</v>
+        <v>12.923580340853</v>
       </c>
       <c r="F163" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="D164">
-        <v>36.037666151167002</v>
+        <v>0.82145834599575296</v>
+      </c>
+      <c r="F164" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D165">
-        <v>16.690354475090899</v>
+        <v>36.254432858570503</v>
+      </c>
+      <c r="F165" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>36.037666151167002</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D167">
-        <v>10.894419722555799</v>
+        <v>16.690354475090899</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D168">
-        <v>90.995506026924105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>10.894419722555799</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D170">
-        <v>19.9443402954772</v>
+        <v>90.995506026924105</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D171">
-        <v>14.210588861400099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
+        <v>802</v>
+      </c>
+      <c r="D172">
+        <v>19.9443402954772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>803</v>
+      </c>
+      <c r="D173">
+        <v>14.210588861400099</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
         <v>804</v>
       </c>
-      <c r="D172">
+      <c r="D174">
         <v>19.802129157825</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B173" s="4">
-        <v>0</v>
-      </c>
-      <c r="F173" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B174" s="4">
-        <v>0</v>
-      </c>
-      <c r="F174" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B175" s="4">
         <v>0</v>
@@ -8656,7 +8885,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B176" s="4">
         <v>0</v>
@@ -8667,7 +8896,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B177" s="4">
         <v>0</v>
@@ -8678,7 +8907,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B178" s="4">
         <v>0</v>
@@ -8689,7 +8918,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B179" s="4">
         <v>0</v>
@@ -8700,7 +8929,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B180" s="4">
         <v>0</v>
@@ -8711,10 +8940,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B181" s="4">
-        <v>0.16300000000000001</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>791</v>
@@ -8722,7 +8951,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B182" s="4">
         <v>0</v>
@@ -8733,10 +8962,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B183" s="4">
-        <v>0</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F183" t="s">
         <v>791</v>
@@ -8744,10 +8973,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B184" s="4">
-        <v>1.7969999999999999</v>
+        <v>0</v>
       </c>
       <c r="F184" t="s">
         <v>791</v>
@@ -8755,10 +8984,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B185" s="4">
-        <v>-0.77100000000000002</v>
+        <v>0</v>
       </c>
       <c r="F185" t="s">
         <v>791</v>
@@ -8766,10 +8995,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B186" s="4">
-        <v>0</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="F186" t="s">
         <v>791</v>
@@ -8777,10 +9006,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B187" s="4">
-        <v>0</v>
+        <v>-0.77100000000000002</v>
       </c>
       <c r="F187" t="s">
         <v>791</v>
@@ -8788,10 +9017,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B188" s="4">
-        <v>-0.33700000000000002</v>
+        <v>0</v>
       </c>
       <c r="F188" t="s">
         <v>791</v>
@@ -8799,10 +9028,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B189" s="4">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="F189" t="s">
         <v>791</v>
@@ -8810,10 +9039,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B190" s="4">
-        <v>0.17299999999999999</v>
+        <v>-0.33700000000000002</v>
       </c>
       <c r="F190" t="s">
         <v>791</v>
@@ -8821,10 +9050,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B191" s="4">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="F191" t="s">
         <v>791</v>
@@ -8832,10 +9061,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B192" s="4">
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F192" t="s">
         <v>791</v>
@@ -8843,7 +9072,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B193" s="4">
         <v>0</v>
@@ -8854,7 +9083,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -8865,7 +9094,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -8876,7 +9105,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B196" s="4">
         <v>0</v>
@@ -8887,7 +9116,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B197" s="4">
         <v>0</v>
@@ -8898,7 +9127,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B198" s="4">
         <v>0</v>
@@ -8909,7 +9138,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B199" s="4">
         <v>0</v>
@@ -8920,10 +9149,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B200" s="4">
-        <v>4.0490000000000004</v>
+        <v>0</v>
       </c>
       <c r="F200" t="s">
         <v>791</v>
@@ -8931,10 +9160,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B201" s="4">
-        <v>4.3869999999999996</v>
+        <v>0</v>
       </c>
       <c r="F201" t="s">
         <v>791</v>
@@ -8942,10 +9171,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B202" s="4">
-        <v>0</v>
+        <v>4.0490000000000004</v>
       </c>
       <c r="F202" t="s">
         <v>791</v>
@@ -8953,10 +9182,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B203" s="4">
-        <v>0</v>
+        <v>4.3869999999999996</v>
       </c>
       <c r="F203" t="s">
         <v>791</v>
@@ -8964,10 +9193,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B204" s="4">
-        <v>1.5389999999999999</v>
+        <v>0</v>
       </c>
       <c r="F204" t="s">
         <v>791</v>
@@ -8975,7 +9204,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B205" s="4">
         <v>0</v>
@@ -8986,10 +9215,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B206" s="4">
-        <v>10.548999999999999</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="F206" t="s">
         <v>791</v>
@@ -8997,10 +9226,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B207" s="4">
-        <v>12.923999999999999</v>
+        <v>0</v>
       </c>
       <c r="F207" t="s">
         <v>791</v>
@@ -9008,10 +9237,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B208" s="4">
-        <v>6.2210000000000001</v>
+        <v>10.548999999999999</v>
       </c>
       <c r="F208" t="s">
         <v>791</v>
@@ -9019,10 +9248,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B209" s="4">
-        <v>0</v>
+        <v>12.923999999999999</v>
       </c>
       <c r="F209" t="s">
         <v>791</v>
@@ -9030,10 +9259,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B210" s="4">
-        <v>0</v>
+        <v>6.2210000000000001</v>
       </c>
       <c r="F210" t="s">
         <v>791</v>
@@ -9041,7 +9270,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B211" s="4">
         <v>0</v>
@@ -9052,7 +9281,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B212" s="4">
         <v>0</v>
@@ -9063,7 +9292,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B213" s="4">
         <v>0</v>
@@ -9074,7 +9303,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B214" s="4">
         <v>0</v>
@@ -9085,7 +9314,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B215" s="4">
         <v>0</v>
@@ -9096,7 +9325,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B216" s="4">
         <v>0</v>
@@ -9107,7 +9336,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B217" s="4">
         <v>0</v>
@@ -9118,7 +9347,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B218" s="4">
         <v>0</v>
@@ -9129,7 +9358,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B219" s="4">
         <v>0</v>
@@ -9140,7 +9369,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B220" s="4">
         <v>0</v>
@@ -9151,7 +9380,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B221" s="4">
         <v>0</v>
@@ -9162,7 +9391,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B222" s="4">
         <v>0</v>
@@ -9173,7 +9402,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B223" s="4">
         <v>0</v>
@@ -9184,7 +9413,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B224" s="4">
         <v>0</v>
@@ -9195,7 +9424,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B225" s="4">
         <v>0</v>
@@ -9206,7 +9435,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -9217,7 +9446,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B227" s="4">
         <v>0</v>
@@ -9228,7 +9457,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B228" s="4">
         <v>0</v>
@@ -9239,7 +9468,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B229" s="4">
         <v>0</v>
@@ -9250,7 +9479,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B230" s="4">
         <v>0</v>
@@ -9261,7 +9490,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B231" s="4">
         <v>0</v>
@@ -9272,7 +9501,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B232" s="4">
         <v>0</v>
@@ -9283,7 +9512,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B233" s="4">
         <v>0</v>
@@ -9294,7 +9523,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B234" s="4">
         <v>0</v>
@@ -9305,7 +9534,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B235" s="4">
         <v>0</v>
@@ -9316,7 +9545,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B236" s="4">
         <v>0</v>
@@ -9327,7 +9556,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B237" s="4">
         <v>0</v>
@@ -9338,7 +9567,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B238" s="4">
         <v>0</v>
@@ -9349,7 +9578,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B239" s="4">
         <v>0</v>
@@ -9360,7 +9589,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B240" s="4">
         <v>0</v>
@@ -9371,7 +9600,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B241" s="4">
         <v>0</v>
@@ -9382,7 +9611,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B242" s="4">
         <v>0</v>
@@ -9393,7 +9622,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B243" s="4">
         <v>0</v>
@@ -9404,7 +9633,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B244" s="4">
         <v>0</v>
@@ -9415,7 +9644,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B245" s="4">
         <v>0</v>
@@ -9426,7 +9655,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B246" s="4">
         <v>0</v>
@@ -9437,7 +9666,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B247" s="4">
         <v>0</v>
@@ -9448,7 +9677,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B248" s="4">
         <v>0</v>
@@ -9459,7 +9688,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B249" s="4">
         <v>0</v>
@@ -9470,7 +9699,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B250" s="4">
         <v>0</v>
@@ -9481,7 +9710,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B251" s="4">
         <v>0</v>
@@ -9492,7 +9721,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B252" s="4">
         <v>0</v>
@@ -9503,7 +9732,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B253" s="4">
         <v>0</v>
@@ -9514,7 +9743,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B254" s="4">
         <v>0</v>
@@ -9525,7 +9754,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B255" s="4">
         <v>0</v>
@@ -9536,7 +9765,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B256" s="4">
         <v>0</v>
@@ -9547,7 +9776,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B257" s="4">
         <v>0</v>
@@ -9558,7 +9787,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B258" s="4">
         <v>0</v>
@@ -9569,7 +9798,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B259" s="4">
         <v>0</v>
@@ -9580,10 +9809,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B260" s="4">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="F260" t="s">
         <v>791</v>
@@ -9591,7 +9820,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B261" s="4">
         <v>0</v>
@@ -9602,10 +9831,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B262" s="4">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="F262" t="s">
         <v>791</v>
@@ -9613,10 +9842,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B263" s="4">
-        <v>1.405</v>
+        <v>0</v>
       </c>
       <c r="F263" t="s">
         <v>791</v>
@@ -9624,10 +9853,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B264" s="4">
-        <v>-0.82099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F264" t="s">
         <v>791</v>
@@ -9635,10 +9864,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B265" s="4">
-        <v>0</v>
+        <v>1.405</v>
       </c>
       <c r="F265" t="s">
         <v>791</v>
@@ -9646,10 +9875,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B266" s="4">
-        <v>0</v>
+        <v>-0.82099999999999995</v>
       </c>
       <c r="F266" t="s">
         <v>791</v>
@@ -9657,10 +9886,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B267" s="4">
-        <v>-0.55800000000000005</v>
+        <v>0</v>
       </c>
       <c r="F267" t="s">
         <v>791</v>
@@ -9668,10 +9897,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B268" s="4">
-        <v>-0.443</v>
+        <v>0</v>
       </c>
       <c r="F268" t="s">
         <v>791</v>
@@ -9679,10 +9908,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B269" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.55800000000000005</v>
       </c>
       <c r="F269" t="s">
         <v>791</v>
@@ -9690,10 +9919,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B270" s="4">
-        <v>0</v>
+        <v>-0.443</v>
       </c>
       <c r="F270" t="s">
         <v>791</v>
@@ -9701,10 +9930,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B271" s="4">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F271" t="s">
         <v>791</v>
@@ -9712,7 +9941,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B272" s="4">
         <v>0</v>
@@ -9723,7 +9952,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B273" s="4">
         <v>0</v>
@@ -9734,7 +9963,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B274" s="4">
         <v>0</v>
@@ -9745,7 +9974,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B275" s="4">
         <v>0</v>
@@ -9756,7 +9985,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B276" s="4">
         <v>0</v>
@@ -9767,7 +9996,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B277" s="4">
         <v>0</v>
@@ -9778,7 +10007,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B278" s="4">
         <v>0</v>
@@ -9789,10 +10018,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B279" s="4">
-        <v>4.0490000000000004</v>
+        <v>0</v>
       </c>
       <c r="F279" t="s">
         <v>791</v>
@@ -9800,10 +10029,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B280" s="4">
-        <v>3.9409999999999998</v>
+        <v>0</v>
       </c>
       <c r="F280" t="s">
         <v>791</v>
@@ -9811,10 +10040,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B281" s="4">
-        <v>0</v>
+        <v>4.0490000000000004</v>
       </c>
       <c r="F281" t="s">
         <v>791</v>
@@ -9822,10 +10051,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B282" s="4">
-        <v>0</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="F282" t="s">
         <v>791</v>
@@ -9833,10 +10062,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B283" s="4">
-        <v>1.5389999999999999</v>
+        <v>0</v>
       </c>
       <c r="F283" t="s">
         <v>791</v>
@@ -9844,7 +10073,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B284" s="4">
         <v>0</v>
@@ -9855,10 +10084,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B285" s="4">
-        <v>10.452999999999999</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="F285" t="s">
         <v>791</v>
@@ -9866,10 +10095,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B286" s="4">
-        <v>12.624000000000001</v>
+        <v>0</v>
       </c>
       <c r="F286" t="s">
         <v>791</v>
@@ -9877,10 +10106,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B287" s="4">
-        <v>5.5149999999999997</v>
+        <v>10.452999999999999</v>
       </c>
       <c r="F287" t="s">
         <v>791</v>
@@ -9888,10 +10117,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B288" s="4">
-        <v>0</v>
+        <v>12.624000000000001</v>
       </c>
       <c r="F288" t="s">
         <v>791</v>
@@ -9899,10 +10128,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B289" s="4">
-        <v>0</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="F289" t="s">
         <v>791</v>
@@ -9910,7 +10139,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B290" s="4">
         <v>0</v>
@@ -9921,7 +10150,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B291" s="4">
         <v>0</v>
@@ -9932,7 +10161,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B292" s="4">
         <v>0</v>
@@ -9943,7 +10172,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B293" s="4">
         <v>0</v>
@@ -9954,7 +10183,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B294" s="4">
         <v>0</v>
@@ -9965,7 +10194,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B295" s="4">
         <v>0</v>
@@ -9976,7 +10205,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B296" s="4">
         <v>0</v>
@@ -9987,7 +10216,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B297" s="4">
         <v>0</v>
@@ -9998,7 +10227,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B298" s="4">
         <v>0</v>
@@ -10009,7 +10238,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B299" s="4">
         <v>0</v>
@@ -10020,7 +10249,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B300" s="4">
         <v>0</v>
@@ -10031,7 +10260,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B301" s="4">
         <v>0</v>
@@ -10042,7 +10271,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B302" s="4">
         <v>0</v>
@@ -10053,7 +10282,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B303" s="4">
         <v>0</v>
@@ -10064,7 +10293,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B304" s="4">
         <v>0</v>
@@ -10075,7 +10304,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B305" s="4">
         <v>0</v>
@@ -10086,7 +10315,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B306" s="4">
         <v>0</v>
@@ -10097,7 +10326,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B307" s="4">
         <v>0</v>
@@ -10108,7 +10337,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B308" s="4">
         <v>0</v>
@@ -10119,7 +10348,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B309" s="4">
         <v>0</v>
@@ -10130,7 +10359,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B310" s="4">
         <v>0</v>
@@ -10141,7 +10370,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B311" s="4">
         <v>0</v>
@@ -10152,7 +10381,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B312" s="4">
         <v>0</v>
@@ -10163,7 +10392,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B313" s="4">
         <v>0</v>
@@ -10174,7 +10403,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B314" s="4">
         <v>0</v>
@@ -10185,7 +10414,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B315" s="4">
         <v>0</v>
@@ -10196,7 +10425,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B316" s="4">
         <v>0</v>
@@ -10207,7 +10436,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B317" s="4">
         <v>0</v>
@@ -10218,7 +10447,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B318" s="4">
         <v>0</v>
@@ -10229,7 +10458,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B319" s="4">
         <v>0</v>
@@ -10240,7 +10469,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B320" s="4">
         <v>0</v>
@@ -10251,7 +10480,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B321" s="4">
         <v>0</v>
@@ -10262,7 +10491,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B322" s="4">
         <v>0</v>
@@ -10273,7 +10502,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B323" s="4">
         <v>0</v>
@@ -10284,7 +10513,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B324" s="4">
         <v>0</v>
@@ -10295,7 +10524,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B325" s="4">
         <v>0</v>
@@ -10306,7 +10535,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B326" s="4">
         <v>0</v>
@@ -10317,7 +10546,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B327" s="4">
         <v>0</v>
@@ -10328,7 +10557,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B328" s="4">
         <v>0</v>
@@ -10339,7 +10568,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B329" s="4">
         <v>0</v>
@@ -10350,13 +10579,651 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B330" s="4">
+        <v>0</v>
+      </c>
+      <c r="F330" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B331" s="4">
+        <v>0</v>
+      </c>
+      <c r="F331" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B330" s="4">
-        <v>0</v>
-      </c>
-      <c r="F330" t="s">
-        <v>791</v>
+      <c r="B332" s="4">
+        <v>0</v>
+      </c>
+      <c r="F332" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4283E985-4A18-4525-904E-F38821CBAA2F}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B3">
+        <v>3.9918330000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D3">
+        <v>3.9918330000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B4">
+        <v>4.3588630000000004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4">
+        <v>4.3588630000000004</v>
+      </c>
+      <c r="E4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5">
+        <v>4.39405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>848</v>
+      </c>
+      <c r="D5">
+        <v>4.39405</v>
+      </c>
+      <c r="E5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B6">
+        <v>4.3808569999999998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D6">
+        <v>4.3808569999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>843</v>
+      </c>
+      <c r="F6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B7">
+        <v>4.3365109999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D7">
+        <v>4.3365109999999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8">
+        <v>4.4076110000000002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D8">
+        <v>4.4076110000000002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B9">
+        <v>4.4291080000000003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D9">
+        <v>4.4291080000000003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>880</v>
+      </c>
+      <c r="F9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B10">
+        <v>4.4526269999999997</v>
+      </c>
+      <c r="C10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10">
+        <v>4.4526269999999997</v>
+      </c>
+      <c r="E10" t="s">
+        <v>879</v>
+      </c>
+      <c r="F10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11">
+        <v>3.7077429999999998</v>
+      </c>
+      <c r="C11" t="s">
+        <v>854</v>
+      </c>
+      <c r="D11">
+        <v>3.7077429999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B12">
+        <v>3.989185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>855</v>
+      </c>
+      <c r="D12">
+        <v>3.989185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13">
+        <v>3.9416690000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>856</v>
+      </c>
+      <c r="D13">
+        <v>3.9416690000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>817</v>
+      </c>
+      <c r="B14">
+        <v>3.8447249999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D14">
+        <v>3.8447249999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15">
+        <v>3.8779849999999998</v>
+      </c>
+      <c r="C15" t="s">
+        <v>858</v>
+      </c>
+      <c r="D15">
+        <v>3.8779849999999998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>819</v>
+      </c>
+      <c r="B16">
+        <v>3.9451749999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D16">
+        <v>3.9451749999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>820</v>
+      </c>
+      <c r="B17">
+        <v>3.9965579999999998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>860</v>
+      </c>
+      <c r="D17">
+        <v>3.9965579999999998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>821</v>
+      </c>
+      <c r="B18">
+        <v>4.0100410000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>861</v>
+      </c>
+      <c r="D18">
+        <v>4.0100410000000002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>822</v>
+      </c>
+      <c r="B19">
+        <v>3.9895900000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>862</v>
+      </c>
+      <c r="D19">
+        <v>3.9895900000000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>823</v>
+      </c>
+      <c r="B20">
+        <v>4.3556499999999998</v>
+      </c>
+      <c r="C20" t="s">
+        <v>863</v>
+      </c>
+      <c r="D20">
+        <v>4.3556499999999998</v>
+      </c>
+      <c r="F20" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>824</v>
+      </c>
+      <c r="B21">
+        <v>4.3907340000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D21">
+        <v>4.3907340000000001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>825</v>
+      </c>
+      <c r="B22">
+        <v>4.3768649999999996</v>
+      </c>
+      <c r="C22" t="s">
+        <v>865</v>
+      </c>
+      <c r="D22">
+        <v>4.3768649999999996</v>
+      </c>
+      <c r="F22" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>826</v>
+      </c>
+      <c r="B23">
+        <v>4.3332829999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>866</v>
+      </c>
+      <c r="D23">
+        <v>4.3332829999999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>827</v>
+      </c>
+      <c r="B24">
+        <v>4.4041090000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>867</v>
+      </c>
+      <c r="D24">
+        <v>4.4041090000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B25">
+        <v>4.4260260000000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>868</v>
+      </c>
+      <c r="D25">
+        <v>4.4260260000000002</v>
+      </c>
+      <c r="F25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B26">
+        <v>4.4493859999999996</v>
+      </c>
+      <c r="C26" t="s">
+        <v>869</v>
+      </c>
+      <c r="D26">
+        <v>4.4493859999999996</v>
+      </c>
+      <c r="F26" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B27">
+        <v>3.6742849999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>870</v>
+      </c>
+      <c r="D27">
+        <v>3.6742849999999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>831</v>
+      </c>
+      <c r="B28">
+        <v>3.9521700000000002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>871</v>
+      </c>
+      <c r="D28">
+        <v>3.9521700000000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>832</v>
+      </c>
+      <c r="B29">
+        <v>3.8906860000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>872</v>
+      </c>
+      <c r="D29">
+        <v>3.8906860000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>833</v>
+      </c>
+      <c r="B30">
+        <v>3.7875239999999999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>873</v>
+      </c>
+      <c r="D30">
+        <v>3.7875239999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>834</v>
+      </c>
+      <c r="B31">
+        <v>3.8270930000000001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>874</v>
+      </c>
+      <c r="D31">
+        <v>3.8270930000000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>835</v>
+      </c>
+      <c r="B32">
+        <v>3.899842</v>
+      </c>
+      <c r="C32" t="s">
+        <v>875</v>
+      </c>
+      <c r="D32">
+        <v>3.899842</v>
+      </c>
+      <c r="F32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>836</v>
+      </c>
+      <c r="B33">
+        <v>3.9490560000000001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>876</v>
+      </c>
+      <c r="D33">
+        <v>3.9490560000000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34">
+        <v>3.964388</v>
+      </c>
+      <c r="C34" t="s">
+        <v>877</v>
+      </c>
+      <c r="D34">
+        <v>3.964388</v>
+      </c>
+      <c r="F34" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19FAF3-8CBD-4B76-B904-5BC771A9DD74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066F5BD6-6EE9-4522-8B28-6DD19291D138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="basak" sheetId="7" r:id="rId7"/>
     <sheet name="Estate" sheetId="8" r:id="rId8"/>
     <sheet name="Moreau-Broto autocorrelation" sheetId="9" r:id="rId9"/>
+    <sheet name="Moran autocorrelation" sheetId="10" r:id="rId10"/>
+    <sheet name="Geary autocorelation" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="955">
   <si>
     <t>Constitutional</t>
   </si>
@@ -2676,6 +2678,228 @@
   </si>
   <si>
     <t>Correlation related to the distance to each atom equal 8 (Mass)</t>
+  </si>
+  <si>
+    <t>Volume related</t>
+  </si>
+  <si>
+    <t>electronegativity relative</t>
+  </si>
+  <si>
+    <t>polarity relative</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>MATSm1</t>
+  </si>
+  <si>
+    <t>MATSm2</t>
+  </si>
+  <si>
+    <t>MATSm3</t>
+  </si>
+  <si>
+    <t>MATSm4</t>
+  </si>
+  <si>
+    <t>MATSm5</t>
+  </si>
+  <si>
+    <t>MATSm6</t>
+  </si>
+  <si>
+    <t>MATSm7</t>
+  </si>
+  <si>
+    <t>MATSm8</t>
+  </si>
+  <si>
+    <t>MATSv1</t>
+  </si>
+  <si>
+    <t>MATSv2</t>
+  </si>
+  <si>
+    <t>MATSv3</t>
+  </si>
+  <si>
+    <t>MATSv4</t>
+  </si>
+  <si>
+    <t>MATSv5</t>
+  </si>
+  <si>
+    <t>MATSv6</t>
+  </si>
+  <si>
+    <t>MATSv7</t>
+  </si>
+  <si>
+    <t>MATSv8</t>
+  </si>
+  <si>
+    <t>MATSe1</t>
+  </si>
+  <si>
+    <t>MATSe2</t>
+  </si>
+  <si>
+    <t>MATSe3</t>
+  </si>
+  <si>
+    <t>MATSe4</t>
+  </si>
+  <si>
+    <t>MATSe5</t>
+  </si>
+  <si>
+    <t>MATSe6</t>
+  </si>
+  <si>
+    <t>MATSe7</t>
+  </si>
+  <si>
+    <t>MATSe8</t>
+  </si>
+  <si>
+    <t>MATSp1</t>
+  </si>
+  <si>
+    <t>MATSp2</t>
+  </si>
+  <si>
+    <t>MATSp3</t>
+  </si>
+  <si>
+    <t>MATSp4</t>
+  </si>
+  <si>
+    <t>MATSp5</t>
+  </si>
+  <si>
+    <t>MATSp6</t>
+  </si>
+  <si>
+    <t>MATSp7</t>
+  </si>
+  <si>
+    <t>MATSp8</t>
+  </si>
+  <si>
+    <t>Clean sources</t>
+  </si>
+  <si>
+    <t>mass based</t>
+  </si>
+  <si>
+    <t>Volume based</t>
+  </si>
+  <si>
+    <t>Electro based</t>
+  </si>
+  <si>
+    <t>Polaribility based</t>
+  </si>
+  <si>
+    <t>GATSm1</t>
+  </si>
+  <si>
+    <t>GATSm2</t>
+  </si>
+  <si>
+    <t>GATSm3</t>
+  </si>
+  <si>
+    <t>GATSm4</t>
+  </si>
+  <si>
+    <t>GATSm5</t>
+  </si>
+  <si>
+    <t>GATSm6</t>
+  </si>
+  <si>
+    <t>GATSm7</t>
+  </si>
+  <si>
+    <t>GATSm8</t>
+  </si>
+  <si>
+    <t>GATSv1</t>
+  </si>
+  <si>
+    <t>GATSv2</t>
+  </si>
+  <si>
+    <t>GATSv3</t>
+  </si>
+  <si>
+    <t>GATSv4</t>
+  </si>
+  <si>
+    <t>GATSv5</t>
+  </si>
+  <si>
+    <t>GATSv6</t>
+  </si>
+  <si>
+    <t>GATSv7</t>
+  </si>
+  <si>
+    <t>GATSv8</t>
+  </si>
+  <si>
+    <t>GATSe1</t>
+  </si>
+  <si>
+    <t>GATSe2</t>
+  </si>
+  <si>
+    <t>GATSe3</t>
+  </si>
+  <si>
+    <t>GATSe4</t>
+  </si>
+  <si>
+    <t>GATSe5</t>
+  </si>
+  <si>
+    <t>GATSe6</t>
+  </si>
+  <si>
+    <t>GATSe7</t>
+  </si>
+  <si>
+    <t>GATSe8</t>
+  </si>
+  <si>
+    <t>GATSp1</t>
+  </si>
+  <si>
+    <t>GATSp2</t>
+  </si>
+  <si>
+    <t>GATSp3</t>
+  </si>
+  <si>
+    <t>GATSp4</t>
+  </si>
+  <si>
+    <t>GATSp5</t>
+  </si>
+  <si>
+    <t>GATSp6</t>
+  </si>
+  <si>
+    <t>GATSp7</t>
+  </si>
+  <si>
+    <t>GATSp8</t>
+  </si>
+  <si>
+    <t>Geary</t>
   </si>
 </sst>
 </file>
@@ -3715,6 +3939,1014 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B1A4C5-DD22-4302-AD1C-8537DC117209}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3">
+        <v>-0.15774299999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D3">
+        <v>-0.15774299999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B4">
+        <v>0.168709</v>
+      </c>
+      <c r="C4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4">
+        <v>0.168709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B5">
+        <v>-0.145481</v>
+      </c>
+      <c r="C5" t="s">
+        <v>887</v>
+      </c>
+      <c r="D5">
+        <v>-0.145481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6">
+        <v>-1.7170999999999999E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6">
+        <v>-1.7170999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B7">
+        <v>-0.16705200000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>889</v>
+      </c>
+      <c r="D7">
+        <v>-0.16705200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B8">
+        <v>0.22050800000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8">
+        <v>0.22050800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B9">
+        <v>-0.223131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D9">
+        <v>-0.223131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>892</v>
+      </c>
+      <c r="B10">
+        <v>3.2912999999999998E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>892</v>
+      </c>
+      <c r="D10">
+        <v>3.2912999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B11">
+        <v>-0.17894299999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>893</v>
+      </c>
+      <c r="D11">
+        <v>-0.17894299999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B12">
+        <v>0.20768</v>
+      </c>
+      <c r="C12" t="s">
+        <v>894</v>
+      </c>
+      <c r="D12">
+        <v>0.20768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13">
+        <v>-0.15917100000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>895</v>
+      </c>
+      <c r="D13">
+        <v>-0.15917100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>896</v>
+      </c>
+      <c r="B14">
+        <v>3.2120999999999997E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D14">
+        <v>3.2120999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>897</v>
+      </c>
+      <c r="B15">
+        <v>-0.18659899999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D15">
+        <v>-0.18659899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>898</v>
+      </c>
+      <c r="B16">
+        <v>0.219303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>898</v>
+      </c>
+      <c r="D16">
+        <v>0.219303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>899</v>
+      </c>
+      <c r="B17">
+        <v>-0.21523600000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>899</v>
+      </c>
+      <c r="D17">
+        <v>-0.21523600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>900</v>
+      </c>
+      <c r="B18">
+        <v>2.2724000000000001E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D18">
+        <v>2.2724000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>901</v>
+      </c>
+      <c r="B19">
+        <v>-0.15543299999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>901</v>
+      </c>
+      <c r="D19">
+        <v>-0.15543299999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>902</v>
+      </c>
+      <c r="B20">
+        <v>0.16495599999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>902</v>
+      </c>
+      <c r="D20">
+        <v>0.16495599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>903</v>
+      </c>
+      <c r="B21">
+        <v>-0.143733</v>
+      </c>
+      <c r="C21" t="s">
+        <v>903</v>
+      </c>
+      <c r="D21">
+        <v>-0.143733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>904</v>
+      </c>
+      <c r="B22">
+        <v>-2.2377999999999999E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>904</v>
+      </c>
+      <c r="D22">
+        <v>-2.2377999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B23">
+        <v>-0.164774</v>
+      </c>
+      <c r="C23" t="s">
+        <v>905</v>
+      </c>
+      <c r="D23">
+        <v>-0.164774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>906</v>
+      </c>
+      <c r="B24">
+        <v>0.220165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>906</v>
+      </c>
+      <c r="D24">
+        <v>0.220165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>907</v>
+      </c>
+      <c r="B25">
+        <v>-0.22389500000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>907</v>
+      </c>
+      <c r="D25">
+        <v>-0.22389500000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>908</v>
+      </c>
+      <c r="B26">
+        <v>3.3782E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>908</v>
+      </c>
+      <c r="D26">
+        <v>3.3782E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27">
+        <v>-0.18820700000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>909</v>
+      </c>
+      <c r="D27">
+        <v>-0.18820700000000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>910</v>
+      </c>
+      <c r="B28">
+        <v>0.22777</v>
+      </c>
+      <c r="C28" t="s">
+        <v>910</v>
+      </c>
+      <c r="D28">
+        <v>0.22777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>911</v>
+      </c>
+      <c r="B29">
+        <v>-0.16356299999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>911</v>
+      </c>
+      <c r="D29">
+        <v>-0.16356299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>912</v>
+      </c>
+      <c r="B30">
+        <v>5.4676000000000002E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>912</v>
+      </c>
+      <c r="D30">
+        <v>5.4676000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>913</v>
+      </c>
+      <c r="B31">
+        <v>-0.194218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>913</v>
+      </c>
+      <c r="D31">
+        <v>-0.194218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32">
+        <v>0.215838</v>
+      </c>
+      <c r="C32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D32">
+        <v>0.215838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>915</v>
+      </c>
+      <c r="B33">
+        <v>-0.21119099999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>915</v>
+      </c>
+      <c r="D33">
+        <v>-0.21119099999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B34">
+        <v>1.6775999999999999E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>916</v>
+      </c>
+      <c r="D34">
+        <v>1.6775999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE91B9-2151-4DED-8739-892DB78E1E96}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D3">
+        <v>0.90730599999999995</v>
+      </c>
+      <c r="F3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B4">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>923</v>
+      </c>
+      <c r="D4">
+        <v>0.73868400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B5">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D5">
+        <v>1.205133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B6">
+        <v>1.234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D6">
+        <v>1.233719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>926</v>
+      </c>
+      <c r="B7">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7">
+        <v>1.267058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D8">
+        <v>0.92865600000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B9">
+        <v>1.274</v>
+      </c>
+      <c r="C9" t="s">
+        <v>928</v>
+      </c>
+      <c r="D9">
+        <v>1.2741130000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>929</v>
+      </c>
+      <c r="B10">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>929</v>
+      </c>
+      <c r="D10">
+        <v>1.066859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D11">
+        <v>0.95217600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B12">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>931</v>
+      </c>
+      <c r="D12">
+        <v>0.72316000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13">
+        <v>1.222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>932</v>
+      </c>
+      <c r="D13">
+        <v>1.2223109999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>933</v>
+      </c>
+      <c r="B14">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D14">
+        <v>1.181899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D15">
+        <v>1.2791939999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>935</v>
+      </c>
+      <c r="B16">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>935</v>
+      </c>
+      <c r="D16">
+        <v>0.91820199999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>936</v>
+      </c>
+      <c r="B17">
+        <v>1.262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D17">
+        <v>1.262122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>937</v>
+      </c>
+      <c r="B18">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>937</v>
+      </c>
+      <c r="D18">
+        <v>1.0669919999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>938</v>
+      </c>
+      <c r="B19">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>938</v>
+      </c>
+      <c r="D19">
+        <v>0.90271500000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>939</v>
+      </c>
+      <c r="B20">
+        <v>0.74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>939</v>
+      </c>
+      <c r="D20">
+        <v>0.740313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>940</v>
+      </c>
+      <c r="B21">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>940</v>
+      </c>
+      <c r="D21">
+        <v>1.2031849999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>941</v>
+      </c>
+      <c r="B22">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D22">
+        <v>1.2393749999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>942</v>
+      </c>
+      <c r="B23">
+        <v>1.266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>942</v>
+      </c>
+      <c r="D23">
+        <v>1.265571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>943</v>
+      </c>
+      <c r="B24">
+        <v>0.93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>943</v>
+      </c>
+      <c r="D24">
+        <v>0.93017700000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>944</v>
+      </c>
+      <c r="B25">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>944</v>
+      </c>
+      <c r="D25">
+        <v>1.275315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>945</v>
+      </c>
+      <c r="B26">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="C26" t="s">
+        <v>945</v>
+      </c>
+      <c r="D26">
+        <v>1.0669919999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>946</v>
+      </c>
+      <c r="B27">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>946</v>
+      </c>
+      <c r="D27">
+        <v>0.97363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>947</v>
+      </c>
+      <c r="B28">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D28">
+        <v>0.71599000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>948</v>
+      </c>
+      <c r="B29">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>948</v>
+      </c>
+      <c r="D29">
+        <v>1.229346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>949</v>
+      </c>
+      <c r="B30">
+        <v>1.159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>949</v>
+      </c>
+      <c r="D30">
+        <v>1.1593249999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>950</v>
+      </c>
+      <c r="B31">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>950</v>
+      </c>
+      <c r="D31">
+        <v>1.2834719999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>951</v>
+      </c>
+      <c r="B32">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>951</v>
+      </c>
+      <c r="D32">
+        <v>0.91600400000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>952</v>
+      </c>
+      <c r="B33">
+        <v>1.256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>952</v>
+      </c>
+      <c r="D33">
+        <v>1.2562340000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>953</v>
+      </c>
+      <c r="B34">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>953</v>
+      </c>
+      <c r="D34">
+        <v>1.0679650000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
@@ -10620,8 +11852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4283E985-4A18-4525-904E-F38821CBAA2F}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10831,6 +12063,9 @@
       <c r="D11">
         <v>3.7077429999999998</v>
       </c>
+      <c r="E11" t="s">
+        <v>881</v>
+      </c>
       <c r="F11" t="s">
         <v>878</v>
       </c>
@@ -10967,6 +12202,9 @@
       <c r="D19">
         <v>3.9895900000000002</v>
       </c>
+      <c r="E19" t="s">
+        <v>882</v>
+      </c>
       <c r="F19" t="s">
         <v>878</v>
       </c>
@@ -11102,6 +12340,9 @@
       </c>
       <c r="D27">
         <v>3.6742849999999998</v>
+      </c>
+      <c r="E27" t="s">
+        <v>883</v>
       </c>
       <c r="F27" t="s">
         <v>878</v>

--- a/doc/list_descriptor.xlsx
+++ b/doc/list_descriptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066F5BD6-6EE9-4522-8B28-6DD19291D138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE88754-F3D9-49DD-8BDC-4E8772F1D233}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constitution" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,15 @@
     <sheet name="Moreau-Broto autocorrelation" sheetId="9" r:id="rId9"/>
     <sheet name="Moran autocorrelation" sheetId="10" r:id="rId10"/>
     <sheet name="Geary autocorelation" sheetId="11" r:id="rId11"/>
+    <sheet name="Charges" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1004">
   <si>
     <t>Constitutional</t>
   </si>
@@ -2900,6 +2897,153 @@
   </si>
   <si>
     <t>Geary</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>polarity</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>LDI</t>
+  </si>
+  <si>
+    <t>Rnc</t>
+  </si>
+  <si>
+    <t>Rpc</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Tac</t>
+  </si>
+  <si>
+    <t>Mnc</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Mpc</t>
+  </si>
+  <si>
+    <t>Tpc</t>
+  </si>
+  <si>
+    <t>Qass</t>
+  </si>
+  <si>
+    <t>QOss</t>
+  </si>
+  <si>
+    <t>QNss</t>
+  </si>
+  <si>
+    <t>QCss</t>
+  </si>
+  <si>
+    <t>QHss</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>QOmin</t>
+  </si>
+  <si>
+    <t>QNmin</t>
+  </si>
+  <si>
+    <t>QCmin</t>
+  </si>
+  <si>
+    <t>QHmin</t>
+  </si>
+  <si>
+    <t>QOmax</t>
+  </si>
+  <si>
+    <t>QNmax</t>
+  </si>
+  <si>
+    <t>QCmax</t>
+  </si>
+  <si>
+    <t>QHmax</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>NumValenceElectrons</t>
+  </si>
+  <si>
+    <t>NumRadicalElectrons</t>
+  </si>
+  <si>
+    <t>MaxAbsPartialCharge</t>
+  </si>
+  <si>
+    <t>MinAbsPartialCharge</t>
+  </si>
+  <si>
+    <t>same of  MinPartialCharge</t>
+  </si>
+  <si>
+    <t>same of  MaxPartialCharge</t>
+  </si>
+  <si>
+    <t>cleanning sources with rdkit3.1</t>
+  </si>
+  <si>
+    <t>Square sum by atom type</t>
+  </si>
+  <si>
+    <t>Square sum for all atoms</t>
+  </si>
+  <si>
+    <t>Total positive charge</t>
+  </si>
+  <si>
+    <t>Structure is always protonated for the charge descriptor</t>
+  </si>
+  <si>
+    <t>Mean positive charge</t>
+  </si>
+  <si>
+    <t>Mean negative charge</t>
+  </si>
+  <si>
+    <t>Total negative charge</t>
+  </si>
+  <si>
+    <t>Total all charge</t>
+  </si>
+  <si>
+    <t>Mean all charges</t>
+  </si>
+  <si>
+    <t>Sources are slow because for each descriptor the charge positionning is not reused</t>
+  </si>
+  <si>
+    <t>Qss</t>
+  </si>
+  <si>
+    <t>Rdkit3.1</t>
   </si>
 </sst>
 </file>
@@ -3284,7 +3428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4453,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE91B9-2151-4DED-8739-892DB78E1E96}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,6 +4647,9 @@
       <c r="D3">
         <v>0.90730599999999995</v>
       </c>
+      <c r="E3" t="s">
+        <v>955</v>
+      </c>
       <c r="F3" t="s">
         <v>917</v>
       </c>
@@ -4618,6 +4765,9 @@
       <c r="D11">
         <v>0.95217600000000002</v>
       </c>
+      <c r="E11" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4689,7 +4839,7 @@
         <v>0.91820199999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>936</v>
       </c>
@@ -4703,7 +4853,7 @@
         <v>1.262122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>937</v>
       </c>
@@ -4717,7 +4867,7 @@
         <v>1.0669919999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>938</v>
       </c>
@@ -4730,8 +4880,11 @@
       <c r="D19">
         <v>0.90271500000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>939</v>
       </c>
@@ -4745,7 +4898,7 @@
         <v>0.740313</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>940</v>
       </c>
@@ -4759,7 +4912,7 @@
         <v>1.2031849999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>941</v>
       </c>
@@ -4773,7 +4926,7 @@
         <v>1.2393749999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>942</v>
       </c>
@@ -4787,7 +4940,7 @@
         <v>1.265571</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>943</v>
       </c>
@@ -4801,7 +4954,7 @@
         <v>0.93017700000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>944</v>
       </c>
@@ -4815,7 +4968,7 @@
         <v>1.275315</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>945</v>
       </c>
@@ -4829,7 +4982,7 @@
         <v>1.0669919999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>946</v>
       </c>
@@ -4842,8 +4995,11 @@
       <c r="D27">
         <v>0.97363</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>947</v>
       </c>
@@ -4857,7 +5013,7 @@
         <v>0.71599000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>948</v>
       </c>
@@ -4871,7 +5027,7 @@
         <v>1.229346</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>949</v>
       </c>
@@ -4885,7 +5041,7 @@
         <v>1.1593249999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>950</v>
       </c>
@@ -4899,7 +5055,7 @@
         <v>1.2834719999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>951</v>
       </c>
@@ -4939,6 +5095,484 @@
       </c>
       <c r="D34">
         <v>1.0679650000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5A38F9-2833-4516-A297-DA618F3FC5B5}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D3">
+        <v>0.83075699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B5">
+        <v>0.106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D5">
+        <v>0.106212</v>
+      </c>
+      <c r="H5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>962</v>
+      </c>
+      <c r="B6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D6">
+        <v>7.2853000000000001E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>963</v>
+      </c>
+      <c r="B7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D7">
+        <v>0.13645299999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>964</v>
+      </c>
+      <c r="B8">
+        <v>9.2789999999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>964</v>
+      </c>
+      <c r="D8">
+        <v>9.2788360000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B9">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>965</v>
+      </c>
+      <c r="D9">
+        <v>-0.17183000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>966</v>
+      </c>
+      <c r="B10">
+        <v>-4.6390000000000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>966</v>
+      </c>
+      <c r="D10">
+        <v>-4.639418</v>
+      </c>
+      <c r="E10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>967</v>
+      </c>
+      <c r="B11">
+        <v>0.113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>967</v>
+      </c>
+      <c r="D11">
+        <v>0.11315699999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>968</v>
+      </c>
+      <c r="B12">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>968</v>
+      </c>
+      <c r="D12">
+        <v>4.639418</v>
+      </c>
+      <c r="E12" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>969</v>
+      </c>
+      <c r="B13">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D13">
+        <v>2.2510490000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>970</v>
+      </c>
+      <c r="B14">
+        <v>1.145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>970</v>
+      </c>
+      <c r="D14">
+        <v>1.1446460000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>971</v>
+      </c>
+      <c r="B15">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>971</v>
+      </c>
+      <c r="D15">
+        <v>0.23219799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>972</v>
+      </c>
+      <c r="B16">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>972</v>
+      </c>
+      <c r="D16">
+        <v>0.59928800000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>973</v>
+      </c>
+      <c r="B17">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>973</v>
+      </c>
+      <c r="D17">
+        <v>0.27491700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>974</v>
+      </c>
+      <c r="B18">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>974</v>
+      </c>
+      <c r="D18">
+        <v>-0.49276199999999998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>989</v>
+      </c>
+      <c r="F18" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>975</v>
+      </c>
+      <c r="B19">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>975</v>
+      </c>
+      <c r="D19">
+        <v>0.33799499999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>990</v>
+      </c>
+      <c r="F19" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>976</v>
+      </c>
+      <c r="B20">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>976</v>
+      </c>
+      <c r="D20">
+        <v>-0.49276199999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>977</v>
+      </c>
+      <c r="B21">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="C21" t="s">
+        <v>977</v>
+      </c>
+      <c r="D21">
+        <v>-0.28763499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>978</v>
+      </c>
+      <c r="B22">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>978</v>
+      </c>
+      <c r="D22">
+        <v>-6.2219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>979</v>
+      </c>
+      <c r="D23">
+        <v>3.5238999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>980</v>
+      </c>
+      <c r="B24">
+        <v>-0.246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>980</v>
+      </c>
+      <c r="D24">
+        <v>-0.246198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>981</v>
+      </c>
+      <c r="B25">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>981</v>
+      </c>
+      <c r="D25">
+        <v>-0.17335999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>982</v>
+      </c>
+      <c r="B26">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>982</v>
+      </c>
+      <c r="D26">
+        <v>0.33799499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>983</v>
+      </c>
+      <c r="B27">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>983</v>
+      </c>
+      <c r="D27">
+        <v>0.29491600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>985</v>
+      </c>
+      <c r="D28">
+        <v>216</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>986</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>987</v>
+      </c>
+      <c r="D30">
+        <v>0.49276205106467302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>988</v>
+      </c>
+      <c r="D31">
+        <v>0.337994570178204</v>
       </c>
     </row>
   </sheetData>
@@ -7718,7 +8352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16169526-9B51-4495-9715-07B3E3E4FE8E}">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
